--- a/src/main/resources/temp/chambers.xlsx
+++ b/src/main/resources/temp/chambers.xlsx
@@ -465,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H420"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="C388" sqref="C388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9631,7 +9631,7 @@
         <v>332</v>
       </c>
       <c r="C384">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D384" t="s">
         <v>0</v>
@@ -9683,7 +9683,7 @@
         <v>329</v>
       </c>
       <c r="C386">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D386" t="s">
         <v>0</v>

--- a/src/main/resources/temp/chambers.xlsx
+++ b/src/main/resources/temp/chambers.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="32">
   <si>
     <t>CAM03</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>R20</t>
+  </si>
+  <si>
+    <t>CAM05</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H420"/>
+  <dimension ref="A1:H798"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A381" workbookViewId="0">
-      <selection activeCell="C388" sqref="C388"/>
+    <sheetView tabSelected="1" topLeftCell="A651" workbookViewId="0">
+      <selection activeCell="H421" sqref="H421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10585,6 +10588,8082 @@
         <v>0</v>
       </c>
     </row>
+    <row r="421" spans="1:8">
+      <c r="D421" t="s">
+        <v>31</v>
+      </c>
+      <c r="E421" t="s">
+        <v>1</v>
+      </c>
+      <c r="F421" t="s">
+        <v>2</v>
+      </c>
+      <c r="G421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="D422" t="s">
+        <v>31</v>
+      </c>
+      <c r="E422" t="s">
+        <v>1</v>
+      </c>
+      <c r="F422" t="s">
+        <v>2</v>
+      </c>
+      <c r="G422" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8">
+      <c r="A423" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B423">
+        <v>76</v>
+      </c>
+      <c r="C423">
+        <v>56</v>
+      </c>
+      <c r="D423" t="s">
+        <v>31</v>
+      </c>
+      <c r="E423" t="s">
+        <v>1</v>
+      </c>
+      <c r="F423" t="s">
+        <v>2</v>
+      </c>
+      <c r="G423" t="s">
+        <v>5</v>
+      </c>
+      <c r="H423">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8">
+      <c r="D424" t="s">
+        <v>31</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1</v>
+      </c>
+      <c r="F424" t="s">
+        <v>6</v>
+      </c>
+      <c r="G424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="D425" t="s">
+        <v>31</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1</v>
+      </c>
+      <c r="F425" t="s">
+        <v>6</v>
+      </c>
+      <c r="G425" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="A426" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B426">
+        <v>69</v>
+      </c>
+      <c r="C426">
+        <v>56</v>
+      </c>
+      <c r="D426" t="s">
+        <v>31</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1</v>
+      </c>
+      <c r="F426" t="s">
+        <v>6</v>
+      </c>
+      <c r="G426" t="s">
+        <v>5</v>
+      </c>
+      <c r="H426">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="D427" t="s">
+        <v>31</v>
+      </c>
+      <c r="E427" t="s">
+        <v>1</v>
+      </c>
+      <c r="F427" t="s">
+        <v>7</v>
+      </c>
+      <c r="G427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="D428" t="s">
+        <v>31</v>
+      </c>
+      <c r="E428" t="s">
+        <v>1</v>
+      </c>
+      <c r="F428" t="s">
+        <v>7</v>
+      </c>
+      <c r="G428" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8">
+      <c r="A429" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B429">
+        <v>69</v>
+      </c>
+      <c r="C429">
+        <v>56</v>
+      </c>
+      <c r="D429" t="s">
+        <v>31</v>
+      </c>
+      <c r="E429" t="s">
+        <v>1</v>
+      </c>
+      <c r="F429" t="s">
+        <v>7</v>
+      </c>
+      <c r="G429" t="s">
+        <v>5</v>
+      </c>
+      <c r="H429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
+      <c r="D430" t="s">
+        <v>31</v>
+      </c>
+      <c r="E430" t="s">
+        <v>1</v>
+      </c>
+      <c r="F430" t="s">
+        <v>8</v>
+      </c>
+      <c r="G430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="D431" t="s">
+        <v>31</v>
+      </c>
+      <c r="E431" t="s">
+        <v>1</v>
+      </c>
+      <c r="F431" t="s">
+        <v>8</v>
+      </c>
+      <c r="G431" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B432">
+        <v>69</v>
+      </c>
+      <c r="C432">
+        <v>56</v>
+      </c>
+      <c r="D432" t="s">
+        <v>31</v>
+      </c>
+      <c r="E432" t="s">
+        <v>1</v>
+      </c>
+      <c r="F432" t="s">
+        <v>8</v>
+      </c>
+      <c r="G432" t="s">
+        <v>5</v>
+      </c>
+      <c r="H432">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8">
+      <c r="D433" t="s">
+        <v>31</v>
+      </c>
+      <c r="E433" t="s">
+        <v>1</v>
+      </c>
+      <c r="F433" t="s">
+        <v>9</v>
+      </c>
+      <c r="G433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="D434" t="s">
+        <v>31</v>
+      </c>
+      <c r="E434" t="s">
+        <v>1</v>
+      </c>
+      <c r="F434" t="s">
+        <v>9</v>
+      </c>
+      <c r="G434" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="A435" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B435">
+        <v>70</v>
+      </c>
+      <c r="C435">
+        <v>56</v>
+      </c>
+      <c r="D435" t="s">
+        <v>31</v>
+      </c>
+      <c r="E435" t="s">
+        <v>1</v>
+      </c>
+      <c r="F435" t="s">
+        <v>9</v>
+      </c>
+      <c r="G435" t="s">
+        <v>5</v>
+      </c>
+      <c r="H435">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="D436" t="s">
+        <v>31</v>
+      </c>
+      <c r="E436" t="s">
+        <v>1</v>
+      </c>
+      <c r="F436" t="s">
+        <v>10</v>
+      </c>
+      <c r="G436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B437">
+        <v>69</v>
+      </c>
+      <c r="C437">
+        <v>56</v>
+      </c>
+      <c r="D437" t="s">
+        <v>31</v>
+      </c>
+      <c r="E437" t="s">
+        <v>1</v>
+      </c>
+      <c r="F437" t="s">
+        <v>10</v>
+      </c>
+      <c r="G437" t="s">
+        <v>4</v>
+      </c>
+      <c r="H437">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B438">
+        <v>68</v>
+      </c>
+      <c r="C438">
+        <v>56</v>
+      </c>
+      <c r="D438" t="s">
+        <v>31</v>
+      </c>
+      <c r="E438" t="s">
+        <v>1</v>
+      </c>
+      <c r="F438" t="s">
+        <v>10</v>
+      </c>
+      <c r="G438" t="s">
+        <v>5</v>
+      </c>
+      <c r="H438">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B439">
+        <v>70</v>
+      </c>
+      <c r="C439">
+        <v>36</v>
+      </c>
+      <c r="D439" t="s">
+        <v>31</v>
+      </c>
+      <c r="E439" t="s">
+        <v>1</v>
+      </c>
+      <c r="F439" t="s">
+        <v>11</v>
+      </c>
+      <c r="G439" t="s">
+        <v>3</v>
+      </c>
+      <c r="H439">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8">
+      <c r="A440" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B440">
+        <v>69</v>
+      </c>
+      <c r="C440">
+        <v>56</v>
+      </c>
+      <c r="D440" t="s">
+        <v>31</v>
+      </c>
+      <c r="E440" t="s">
+        <v>1</v>
+      </c>
+      <c r="F440" t="s">
+        <v>11</v>
+      </c>
+      <c r="G440" t="s">
+        <v>4</v>
+      </c>
+      <c r="H440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="A441" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B441">
+        <v>68</v>
+      </c>
+      <c r="C441">
+        <v>56</v>
+      </c>
+      <c r="D441" t="s">
+        <v>31</v>
+      </c>
+      <c r="E441" t="s">
+        <v>1</v>
+      </c>
+      <c r="F441" t="s">
+        <v>11</v>
+      </c>
+      <c r="G441" t="s">
+        <v>5</v>
+      </c>
+      <c r="H441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="A442" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B442">
+        <v>99</v>
+      </c>
+      <c r="C442">
+        <v>69</v>
+      </c>
+      <c r="D442" t="s">
+        <v>31</v>
+      </c>
+      <c r="E442" t="s">
+        <v>12</v>
+      </c>
+      <c r="F442" t="s">
+        <v>2</v>
+      </c>
+      <c r="G442" t="s">
+        <v>3</v>
+      </c>
+      <c r="H442">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B443">
+        <v>93</v>
+      </c>
+      <c r="C443">
+        <v>75</v>
+      </c>
+      <c r="D443" t="s">
+        <v>31</v>
+      </c>
+      <c r="E443" t="s">
+        <v>12</v>
+      </c>
+      <c r="F443" t="s">
+        <v>2</v>
+      </c>
+      <c r="G443" t="s">
+        <v>4</v>
+      </c>
+      <c r="H443">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="A444" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B444">
+        <v>85</v>
+      </c>
+      <c r="C444">
+        <v>75</v>
+      </c>
+      <c r="D444" t="s">
+        <v>31</v>
+      </c>
+      <c r="E444" t="s">
+        <v>12</v>
+      </c>
+      <c r="F444" t="s">
+        <v>2</v>
+      </c>
+      <c r="G444" t="s">
+        <v>5</v>
+      </c>
+      <c r="H444">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="A445" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B445">
+        <v>99</v>
+      </c>
+      <c r="C445">
+        <v>75</v>
+      </c>
+      <c r="D445" t="s">
+        <v>31</v>
+      </c>
+      <c r="E445" t="s">
+        <v>12</v>
+      </c>
+      <c r="F445" t="s">
+        <v>6</v>
+      </c>
+      <c r="G445" t="s">
+        <v>3</v>
+      </c>
+      <c r="H445">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B446">
+        <v>95</v>
+      </c>
+      <c r="C446">
+        <v>75</v>
+      </c>
+      <c r="D446" t="s">
+        <v>31</v>
+      </c>
+      <c r="E446" t="s">
+        <v>12</v>
+      </c>
+      <c r="F446" t="s">
+        <v>6</v>
+      </c>
+      <c r="G446" t="s">
+        <v>4</v>
+      </c>
+      <c r="H446">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B447">
+        <v>86</v>
+      </c>
+      <c r="C447">
+        <v>75</v>
+      </c>
+      <c r="D447" t="s">
+        <v>31</v>
+      </c>
+      <c r="E447" t="s">
+        <v>12</v>
+      </c>
+      <c r="F447" t="s">
+        <v>6</v>
+      </c>
+      <c r="G447" t="s">
+        <v>5</v>
+      </c>
+      <c r="H447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
+      <c r="A448" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B448">
+        <v>99</v>
+      </c>
+      <c r="C448">
+        <v>75</v>
+      </c>
+      <c r="D448" t="s">
+        <v>31</v>
+      </c>
+      <c r="E448" t="s">
+        <v>12</v>
+      </c>
+      <c r="F448" t="s">
+        <v>7</v>
+      </c>
+      <c r="G448" t="s">
+        <v>3</v>
+      </c>
+      <c r="H448">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="A449" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B449">
+        <v>93</v>
+      </c>
+      <c r="C449">
+        <v>75</v>
+      </c>
+      <c r="D449" t="s">
+        <v>31</v>
+      </c>
+      <c r="E449" t="s">
+        <v>12</v>
+      </c>
+      <c r="F449" t="s">
+        <v>7</v>
+      </c>
+      <c r="G449" t="s">
+        <v>4</v>
+      </c>
+      <c r="H449">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B450">
+        <v>93</v>
+      </c>
+      <c r="C450">
+        <v>75</v>
+      </c>
+      <c r="D450" t="s">
+        <v>31</v>
+      </c>
+      <c r="E450" t="s">
+        <v>12</v>
+      </c>
+      <c r="F450" t="s">
+        <v>7</v>
+      </c>
+      <c r="G450" t="s">
+        <v>5</v>
+      </c>
+      <c r="H450">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8">
+      <c r="A451" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B451">
+        <v>95</v>
+      </c>
+      <c r="C451">
+        <v>75</v>
+      </c>
+      <c r="D451" t="s">
+        <v>31</v>
+      </c>
+      <c r="E451" t="s">
+        <v>12</v>
+      </c>
+      <c r="F451" t="s">
+        <v>8</v>
+      </c>
+      <c r="G451" t="s">
+        <v>3</v>
+      </c>
+      <c r="H451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="A452" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B452">
+        <v>98</v>
+      </c>
+      <c r="C452">
+        <v>75</v>
+      </c>
+      <c r="D452" t="s">
+        <v>31</v>
+      </c>
+      <c r="E452" t="s">
+        <v>12</v>
+      </c>
+      <c r="F452" t="s">
+        <v>8</v>
+      </c>
+      <c r="G452" t="s">
+        <v>4</v>
+      </c>
+      <c r="H452">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="A453" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B453">
+        <v>94</v>
+      </c>
+      <c r="C453">
+        <v>75</v>
+      </c>
+      <c r="D453" t="s">
+        <v>31</v>
+      </c>
+      <c r="E453" t="s">
+        <v>12</v>
+      </c>
+      <c r="F453" t="s">
+        <v>8</v>
+      </c>
+      <c r="G453" t="s">
+        <v>5</v>
+      </c>
+      <c r="H453">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B454">
+        <v>100</v>
+      </c>
+      <c r="C454">
+        <v>75</v>
+      </c>
+      <c r="D454" t="s">
+        <v>31</v>
+      </c>
+      <c r="E454" t="s">
+        <v>12</v>
+      </c>
+      <c r="F454" t="s">
+        <v>9</v>
+      </c>
+      <c r="G454" t="s">
+        <v>3</v>
+      </c>
+      <c r="H454">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8">
+      <c r="A455" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B455">
+        <v>98</v>
+      </c>
+      <c r="C455">
+        <v>75</v>
+      </c>
+      <c r="D455" t="s">
+        <v>31</v>
+      </c>
+      <c r="E455" t="s">
+        <v>12</v>
+      </c>
+      <c r="F455" t="s">
+        <v>9</v>
+      </c>
+      <c r="G455" t="s">
+        <v>4</v>
+      </c>
+      <c r="H455">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B456">
+        <v>94</v>
+      </c>
+      <c r="C456">
+        <v>75</v>
+      </c>
+      <c r="D456" t="s">
+        <v>31</v>
+      </c>
+      <c r="E456" t="s">
+        <v>12</v>
+      </c>
+      <c r="F456" t="s">
+        <v>9</v>
+      </c>
+      <c r="G456" t="s">
+        <v>5</v>
+      </c>
+      <c r="H456">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B457">
+        <v>99</v>
+      </c>
+      <c r="C457">
+        <v>75</v>
+      </c>
+      <c r="D457" t="s">
+        <v>31</v>
+      </c>
+      <c r="E457" t="s">
+        <v>12</v>
+      </c>
+      <c r="F457" t="s">
+        <v>10</v>
+      </c>
+      <c r="G457" t="s">
+        <v>3</v>
+      </c>
+      <c r="H457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="A458" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B458">
+        <v>98</v>
+      </c>
+      <c r="C458">
+        <v>75</v>
+      </c>
+      <c r="D458" t="s">
+        <v>31</v>
+      </c>
+      <c r="E458" t="s">
+        <v>12</v>
+      </c>
+      <c r="F458" t="s">
+        <v>10</v>
+      </c>
+      <c r="G458" t="s">
+        <v>4</v>
+      </c>
+      <c r="H458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B459">
+        <v>93</v>
+      </c>
+      <c r="C459">
+        <v>75</v>
+      </c>
+      <c r="D459" t="s">
+        <v>31</v>
+      </c>
+      <c r="E459" t="s">
+        <v>12</v>
+      </c>
+      <c r="F459" t="s">
+        <v>10</v>
+      </c>
+      <c r="G459" t="s">
+        <v>5</v>
+      </c>
+      <c r="H459">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B460">
+        <v>100</v>
+      </c>
+      <c r="C460">
+        <v>75</v>
+      </c>
+      <c r="D460" t="s">
+        <v>31</v>
+      </c>
+      <c r="E460" t="s">
+        <v>12</v>
+      </c>
+      <c r="F460" t="s">
+        <v>11</v>
+      </c>
+      <c r="G460" t="s">
+        <v>3</v>
+      </c>
+      <c r="H460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
+      <c r="A461" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B461">
+        <v>95</v>
+      </c>
+      <c r="C461">
+        <v>75</v>
+      </c>
+      <c r="D461" t="s">
+        <v>31</v>
+      </c>
+      <c r="E461" t="s">
+        <v>12</v>
+      </c>
+      <c r="F461" t="s">
+        <v>11</v>
+      </c>
+      <c r="G461" t="s">
+        <v>4</v>
+      </c>
+      <c r="H461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="A462" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B462">
+        <v>93</v>
+      </c>
+      <c r="C462">
+        <v>75</v>
+      </c>
+      <c r="D462" t="s">
+        <v>31</v>
+      </c>
+      <c r="E462" t="s">
+        <v>12</v>
+      </c>
+      <c r="F462" t="s">
+        <v>11</v>
+      </c>
+      <c r="G462" t="s">
+        <v>5</v>
+      </c>
+      <c r="H462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8">
+      <c r="D463" t="s">
+        <v>31</v>
+      </c>
+      <c r="E463" t="s">
+        <v>13</v>
+      </c>
+      <c r="F463" t="s">
+        <v>2</v>
+      </c>
+      <c r="G463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="D464" t="s">
+        <v>31</v>
+      </c>
+      <c r="E464" t="s">
+        <v>13</v>
+      </c>
+      <c r="F464" t="s">
+        <v>2</v>
+      </c>
+      <c r="G464" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="4:7">
+      <c r="D465" t="s">
+        <v>31</v>
+      </c>
+      <c r="E465" t="s">
+        <v>13</v>
+      </c>
+      <c r="F465" t="s">
+        <v>2</v>
+      </c>
+      <c r="G465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="4:7">
+      <c r="D466" t="s">
+        <v>31</v>
+      </c>
+      <c r="E466" t="s">
+        <v>13</v>
+      </c>
+      <c r="F466" t="s">
+        <v>6</v>
+      </c>
+      <c r="G466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="4:7">
+      <c r="D467" t="s">
+        <v>31</v>
+      </c>
+      <c r="E467" t="s">
+        <v>13</v>
+      </c>
+      <c r="F467" t="s">
+        <v>6</v>
+      </c>
+      <c r="G467" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="4:7">
+      <c r="D468" t="s">
+        <v>31</v>
+      </c>
+      <c r="E468" t="s">
+        <v>13</v>
+      </c>
+      <c r="F468" t="s">
+        <v>6</v>
+      </c>
+      <c r="G468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469" spans="4:7">
+      <c r="D469" t="s">
+        <v>31</v>
+      </c>
+      <c r="E469" t="s">
+        <v>13</v>
+      </c>
+      <c r="F469" t="s">
+        <v>7</v>
+      </c>
+      <c r="G469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="4:7">
+      <c r="D470" t="s">
+        <v>31</v>
+      </c>
+      <c r="E470" t="s">
+        <v>13</v>
+      </c>
+      <c r="F470" t="s">
+        <v>7</v>
+      </c>
+      <c r="G470" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="4:7">
+      <c r="D471" t="s">
+        <v>31</v>
+      </c>
+      <c r="E471" t="s">
+        <v>13</v>
+      </c>
+      <c r="F471" t="s">
+        <v>7</v>
+      </c>
+      <c r="G471" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="4:7">
+      <c r="D472" t="s">
+        <v>31</v>
+      </c>
+      <c r="E472" t="s">
+        <v>13</v>
+      </c>
+      <c r="F472" t="s">
+        <v>8</v>
+      </c>
+      <c r="G472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="4:7">
+      <c r="D473" t="s">
+        <v>31</v>
+      </c>
+      <c r="E473" t="s">
+        <v>13</v>
+      </c>
+      <c r="F473" t="s">
+        <v>8</v>
+      </c>
+      <c r="G473" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="474" spans="4:7">
+      <c r="D474" t="s">
+        <v>31</v>
+      </c>
+      <c r="E474" t="s">
+        <v>13</v>
+      </c>
+      <c r="F474" t="s">
+        <v>8</v>
+      </c>
+      <c r="G474" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="4:7">
+      <c r="D475" t="s">
+        <v>31</v>
+      </c>
+      <c r="E475" t="s">
+        <v>13</v>
+      </c>
+      <c r="F475" t="s">
+        <v>9</v>
+      </c>
+      <c r="G475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="4:7">
+      <c r="D476" t="s">
+        <v>31</v>
+      </c>
+      <c r="E476" t="s">
+        <v>13</v>
+      </c>
+      <c r="F476" t="s">
+        <v>9</v>
+      </c>
+      <c r="G476" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="477" spans="4:7">
+      <c r="D477" t="s">
+        <v>31</v>
+      </c>
+      <c r="E477" t="s">
+        <v>13</v>
+      </c>
+      <c r="F477" t="s">
+        <v>9</v>
+      </c>
+      <c r="G477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="4:7">
+      <c r="D478" t="s">
+        <v>31</v>
+      </c>
+      <c r="E478" t="s">
+        <v>13</v>
+      </c>
+      <c r="F478" t="s">
+        <v>10</v>
+      </c>
+      <c r="G478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="4:7">
+      <c r="D479" t="s">
+        <v>31</v>
+      </c>
+      <c r="E479" t="s">
+        <v>13</v>
+      </c>
+      <c r="F479" t="s">
+        <v>10</v>
+      </c>
+      <c r="G479" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="480" spans="4:7">
+      <c r="D480" t="s">
+        <v>31</v>
+      </c>
+      <c r="E480" t="s">
+        <v>13</v>
+      </c>
+      <c r="F480" t="s">
+        <v>10</v>
+      </c>
+      <c r="G480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8">
+      <c r="D481" t="s">
+        <v>31</v>
+      </c>
+      <c r="E481" t="s">
+        <v>13</v>
+      </c>
+      <c r="F481" t="s">
+        <v>11</v>
+      </c>
+      <c r="G481" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="D482" t="s">
+        <v>31</v>
+      </c>
+      <c r="E482" t="s">
+        <v>13</v>
+      </c>
+      <c r="F482" t="s">
+        <v>11</v>
+      </c>
+      <c r="G482" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="D483" t="s">
+        <v>31</v>
+      </c>
+      <c r="E483" t="s">
+        <v>13</v>
+      </c>
+      <c r="F483" t="s">
+        <v>11</v>
+      </c>
+      <c r="G483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B484">
+        <v>100</v>
+      </c>
+      <c r="C484">
+        <v>75</v>
+      </c>
+      <c r="D484" t="s">
+        <v>31</v>
+      </c>
+      <c r="E484" t="s">
+        <v>14</v>
+      </c>
+      <c r="F484" t="s">
+        <v>2</v>
+      </c>
+      <c r="G484" t="s">
+        <v>3</v>
+      </c>
+      <c r="H484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B485">
+        <v>99</v>
+      </c>
+      <c r="C485">
+        <v>75</v>
+      </c>
+      <c r="D485" t="s">
+        <v>31</v>
+      </c>
+      <c r="E485" t="s">
+        <v>14</v>
+      </c>
+      <c r="F485" t="s">
+        <v>2</v>
+      </c>
+      <c r="G485" t="s">
+        <v>4</v>
+      </c>
+      <c r="H485">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8">
+      <c r="A486" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B486">
+        <v>100</v>
+      </c>
+      <c r="C486">
+        <v>75</v>
+      </c>
+      <c r="D486" t="s">
+        <v>31</v>
+      </c>
+      <c r="E486" t="s">
+        <v>14</v>
+      </c>
+      <c r="F486" t="s">
+        <v>2</v>
+      </c>
+      <c r="G486" t="s">
+        <v>5</v>
+      </c>
+      <c r="H486">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B487">
+        <v>101</v>
+      </c>
+      <c r="C487">
+        <v>75</v>
+      </c>
+      <c r="D487" t="s">
+        <v>31</v>
+      </c>
+      <c r="E487" t="s">
+        <v>14</v>
+      </c>
+      <c r="F487" t="s">
+        <v>6</v>
+      </c>
+      <c r="G487" t="s">
+        <v>3</v>
+      </c>
+      <c r="H487">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="A488" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B488">
+        <v>98</v>
+      </c>
+      <c r="C488">
+        <v>75</v>
+      </c>
+      <c r="D488" t="s">
+        <v>31</v>
+      </c>
+      <c r="E488" t="s">
+        <v>14</v>
+      </c>
+      <c r="F488" t="s">
+        <v>6</v>
+      </c>
+      <c r="G488" t="s">
+        <v>4</v>
+      </c>
+      <c r="H488">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B489">
+        <v>98</v>
+      </c>
+      <c r="C489">
+        <v>75</v>
+      </c>
+      <c r="D489" t="s">
+        <v>31</v>
+      </c>
+      <c r="E489" t="s">
+        <v>14</v>
+      </c>
+      <c r="F489" t="s">
+        <v>6</v>
+      </c>
+      <c r="G489" t="s">
+        <v>5</v>
+      </c>
+      <c r="H489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8">
+      <c r="A490" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B490">
+        <v>101</v>
+      </c>
+      <c r="C490">
+        <v>75</v>
+      </c>
+      <c r="D490" t="s">
+        <v>31</v>
+      </c>
+      <c r="E490" t="s">
+        <v>14</v>
+      </c>
+      <c r="F490" t="s">
+        <v>7</v>
+      </c>
+      <c r="G490" t="s">
+        <v>3</v>
+      </c>
+      <c r="H490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B491">
+        <v>99</v>
+      </c>
+      <c r="C491">
+        <v>75</v>
+      </c>
+      <c r="D491" t="s">
+        <v>31</v>
+      </c>
+      <c r="E491" t="s">
+        <v>14</v>
+      </c>
+      <c r="F491" t="s">
+        <v>7</v>
+      </c>
+      <c r="G491" t="s">
+        <v>4</v>
+      </c>
+      <c r="H491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="A492" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B492">
+        <v>98</v>
+      </c>
+      <c r="C492">
+        <v>75</v>
+      </c>
+      <c r="D492" t="s">
+        <v>31</v>
+      </c>
+      <c r="E492" t="s">
+        <v>14</v>
+      </c>
+      <c r="F492" t="s">
+        <v>7</v>
+      </c>
+      <c r="G492" t="s">
+        <v>5</v>
+      </c>
+      <c r="H492">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="A493" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B493">
+        <v>101</v>
+      </c>
+      <c r="C493">
+        <v>75</v>
+      </c>
+      <c r="D493" t="s">
+        <v>31</v>
+      </c>
+      <c r="E493" t="s">
+        <v>14</v>
+      </c>
+      <c r="F493" t="s">
+        <v>8</v>
+      </c>
+      <c r="G493" t="s">
+        <v>3</v>
+      </c>
+      <c r="H493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="A494" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B494">
+        <v>100</v>
+      </c>
+      <c r="C494">
+        <v>75</v>
+      </c>
+      <c r="D494" t="s">
+        <v>31</v>
+      </c>
+      <c r="E494" t="s">
+        <v>14</v>
+      </c>
+      <c r="F494" t="s">
+        <v>8</v>
+      </c>
+      <c r="G494" t="s">
+        <v>4</v>
+      </c>
+      <c r="H494">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B495">
+        <v>99</v>
+      </c>
+      <c r="C495">
+        <v>75</v>
+      </c>
+      <c r="D495" t="s">
+        <v>31</v>
+      </c>
+      <c r="E495" t="s">
+        <v>14</v>
+      </c>
+      <c r="F495" t="s">
+        <v>8</v>
+      </c>
+      <c r="G495" t="s">
+        <v>5</v>
+      </c>
+      <c r="H495">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B496">
+        <v>100</v>
+      </c>
+      <c r="C496">
+        <v>75</v>
+      </c>
+      <c r="D496" t="s">
+        <v>31</v>
+      </c>
+      <c r="E496" t="s">
+        <v>14</v>
+      </c>
+      <c r="F496" t="s">
+        <v>9</v>
+      </c>
+      <c r="G496" t="s">
+        <v>3</v>
+      </c>
+      <c r="H496">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B497">
+        <v>100</v>
+      </c>
+      <c r="C497">
+        <v>75</v>
+      </c>
+      <c r="D497" t="s">
+        <v>31</v>
+      </c>
+      <c r="E497" t="s">
+        <v>14</v>
+      </c>
+      <c r="F497" t="s">
+        <v>9</v>
+      </c>
+      <c r="G497" t="s">
+        <v>4</v>
+      </c>
+      <c r="H497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B498">
+        <v>95</v>
+      </c>
+      <c r="C498">
+        <v>75</v>
+      </c>
+      <c r="D498" t="s">
+        <v>31</v>
+      </c>
+      <c r="E498" t="s">
+        <v>14</v>
+      </c>
+      <c r="F498" t="s">
+        <v>9</v>
+      </c>
+      <c r="G498" t="s">
+        <v>5</v>
+      </c>
+      <c r="H498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B499">
+        <v>102</v>
+      </c>
+      <c r="C499">
+        <v>75</v>
+      </c>
+      <c r="D499" t="s">
+        <v>31</v>
+      </c>
+      <c r="E499" t="s">
+        <v>14</v>
+      </c>
+      <c r="F499" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" t="s">
+        <v>3</v>
+      </c>
+      <c r="H499">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B500">
+        <v>99</v>
+      </c>
+      <c r="C500">
+        <v>75</v>
+      </c>
+      <c r="D500" t="s">
+        <v>31</v>
+      </c>
+      <c r="E500" t="s">
+        <v>14</v>
+      </c>
+      <c r="F500" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500" t="s">
+        <v>4</v>
+      </c>
+      <c r="H500">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B501">
+        <v>99</v>
+      </c>
+      <c r="C501">
+        <v>75</v>
+      </c>
+      <c r="D501" t="s">
+        <v>31</v>
+      </c>
+      <c r="E501" t="s">
+        <v>14</v>
+      </c>
+      <c r="F501" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" t="s">
+        <v>5</v>
+      </c>
+      <c r="H501">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8">
+      <c r="D502" t="s">
+        <v>31</v>
+      </c>
+      <c r="E502" t="s">
+        <v>14</v>
+      </c>
+      <c r="F502" t="s">
+        <v>11</v>
+      </c>
+      <c r="G502" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="D503" t="s">
+        <v>31</v>
+      </c>
+      <c r="E503" t="s">
+        <v>14</v>
+      </c>
+      <c r="F503" t="s">
+        <v>11</v>
+      </c>
+      <c r="G503" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="A504" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B504">
+        <v>95</v>
+      </c>
+      <c r="C504">
+        <v>75</v>
+      </c>
+      <c r="D504" t="s">
+        <v>31</v>
+      </c>
+      <c r="E504" t="s">
+        <v>14</v>
+      </c>
+      <c r="F504" t="s">
+        <v>11</v>
+      </c>
+      <c r="G504" t="s">
+        <v>5</v>
+      </c>
+      <c r="H504">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="D505" t="s">
+        <v>31</v>
+      </c>
+      <c r="E505" t="s">
+        <v>15</v>
+      </c>
+      <c r="F505" t="s">
+        <v>2</v>
+      </c>
+      <c r="G505" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="D506" t="s">
+        <v>31</v>
+      </c>
+      <c r="E506" t="s">
+        <v>15</v>
+      </c>
+      <c r="F506" t="s">
+        <v>2</v>
+      </c>
+      <c r="G506" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" s="1">
+        <v>3905</v>
+      </c>
+      <c r="B507">
+        <v>55</v>
+      </c>
+      <c r="C507">
+        <v>13</v>
+      </c>
+      <c r="D507" t="s">
+        <v>31</v>
+      </c>
+      <c r="E507" t="s">
+        <v>15</v>
+      </c>
+      <c r="F507" t="s">
+        <v>2</v>
+      </c>
+      <c r="G507" t="s">
+        <v>5</v>
+      </c>
+      <c r="H507">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8">
+      <c r="D508" t="s">
+        <v>31</v>
+      </c>
+      <c r="E508" t="s">
+        <v>15</v>
+      </c>
+      <c r="F508" t="s">
+        <v>6</v>
+      </c>
+      <c r="G508" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="D509" t="s">
+        <v>31</v>
+      </c>
+      <c r="E509" t="s">
+        <v>15</v>
+      </c>
+      <c r="F509" t="s">
+        <v>6</v>
+      </c>
+      <c r="G509" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="A510" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B510">
+        <v>69</v>
+      </c>
+      <c r="C510">
+        <v>28</v>
+      </c>
+      <c r="D510" t="s">
+        <v>31</v>
+      </c>
+      <c r="E510" t="s">
+        <v>15</v>
+      </c>
+      <c r="F510" t="s">
+        <v>6</v>
+      </c>
+      <c r="G510" t="s">
+        <v>5</v>
+      </c>
+      <c r="H510">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8">
+      <c r="D511" t="s">
+        <v>31</v>
+      </c>
+      <c r="E511" t="s">
+        <v>15</v>
+      </c>
+      <c r="F511" t="s">
+        <v>7</v>
+      </c>
+      <c r="G511" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8">
+      <c r="D512" t="s">
+        <v>31</v>
+      </c>
+      <c r="E512" t="s">
+        <v>15</v>
+      </c>
+      <c r="F512" t="s">
+        <v>7</v>
+      </c>
+      <c r="G512" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="D513" t="s">
+        <v>31</v>
+      </c>
+      <c r="E513" t="s">
+        <v>15</v>
+      </c>
+      <c r="F513" t="s">
+        <v>7</v>
+      </c>
+      <c r="G513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="D514" t="s">
+        <v>31</v>
+      </c>
+      <c r="E514" t="s">
+        <v>15</v>
+      </c>
+      <c r="F514" t="s">
+        <v>8</v>
+      </c>
+      <c r="G514" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="D515" t="s">
+        <v>31</v>
+      </c>
+      <c r="E515" t="s">
+        <v>15</v>
+      </c>
+      <c r="F515" t="s">
+        <v>8</v>
+      </c>
+      <c r="G515" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="D516" t="s">
+        <v>31</v>
+      </c>
+      <c r="E516" t="s">
+        <v>15</v>
+      </c>
+      <c r="F516" t="s">
+        <v>8</v>
+      </c>
+      <c r="G516" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8">
+      <c r="D517" t="s">
+        <v>31</v>
+      </c>
+      <c r="E517" t="s">
+        <v>15</v>
+      </c>
+      <c r="F517" t="s">
+        <v>9</v>
+      </c>
+      <c r="G517" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="D518" t="s">
+        <v>31</v>
+      </c>
+      <c r="E518" t="s">
+        <v>15</v>
+      </c>
+      <c r="F518" t="s">
+        <v>9</v>
+      </c>
+      <c r="G518" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="D519" t="s">
+        <v>31</v>
+      </c>
+      <c r="E519" t="s">
+        <v>15</v>
+      </c>
+      <c r="F519" t="s">
+        <v>9</v>
+      </c>
+      <c r="G519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
+      <c r="D520" t="s">
+        <v>31</v>
+      </c>
+      <c r="E520" t="s">
+        <v>15</v>
+      </c>
+      <c r="F520" t="s">
+        <v>10</v>
+      </c>
+      <c r="G520" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8">
+      <c r="D521" t="s">
+        <v>31</v>
+      </c>
+      <c r="E521" t="s">
+        <v>15</v>
+      </c>
+      <c r="F521" t="s">
+        <v>10</v>
+      </c>
+      <c r="G521" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="D522" t="s">
+        <v>31</v>
+      </c>
+      <c r="E522" t="s">
+        <v>15</v>
+      </c>
+      <c r="F522" t="s">
+        <v>10</v>
+      </c>
+      <c r="G522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="D523" t="s">
+        <v>31</v>
+      </c>
+      <c r="E523" t="s">
+        <v>15</v>
+      </c>
+      <c r="F523" t="s">
+        <v>11</v>
+      </c>
+      <c r="G523" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="D524" t="s">
+        <v>31</v>
+      </c>
+      <c r="E524" t="s">
+        <v>15</v>
+      </c>
+      <c r="F524" t="s">
+        <v>11</v>
+      </c>
+      <c r="G524" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="D525" t="s">
+        <v>31</v>
+      </c>
+      <c r="E525" t="s">
+        <v>15</v>
+      </c>
+      <c r="F525" t="s">
+        <v>11</v>
+      </c>
+      <c r="G525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="D526" t="s">
+        <v>31</v>
+      </c>
+      <c r="E526" t="s">
+        <v>16</v>
+      </c>
+      <c r="F526" t="s">
+        <v>2</v>
+      </c>
+      <c r="G526" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="A527" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B527">
+        <v>85</v>
+      </c>
+      <c r="C527">
+        <v>71</v>
+      </c>
+      <c r="D527" t="s">
+        <v>31</v>
+      </c>
+      <c r="E527" t="s">
+        <v>16</v>
+      </c>
+      <c r="F527" t="s">
+        <v>2</v>
+      </c>
+      <c r="G527" t="s">
+        <v>4</v>
+      </c>
+      <c r="H527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B528">
+        <v>78</v>
+      </c>
+      <c r="C528">
+        <v>52</v>
+      </c>
+      <c r="D528" t="s">
+        <v>31</v>
+      </c>
+      <c r="E528" t="s">
+        <v>16</v>
+      </c>
+      <c r="F528" t="s">
+        <v>2</v>
+      </c>
+      <c r="G528" t="s">
+        <v>5</v>
+      </c>
+      <c r="H528">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B529">
+        <v>95</v>
+      </c>
+      <c r="C529">
+        <v>75</v>
+      </c>
+      <c r="D529" t="s">
+        <v>31</v>
+      </c>
+      <c r="E529" t="s">
+        <v>16</v>
+      </c>
+      <c r="F529" t="s">
+        <v>6</v>
+      </c>
+      <c r="G529" t="s">
+        <v>3</v>
+      </c>
+      <c r="H529">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8">
+      <c r="D530" t="s">
+        <v>31</v>
+      </c>
+      <c r="E530" t="s">
+        <v>16</v>
+      </c>
+      <c r="F530" t="s">
+        <v>6</v>
+      </c>
+      <c r="G530" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="D531" t="s">
+        <v>31</v>
+      </c>
+      <c r="E531" t="s">
+        <v>16</v>
+      </c>
+      <c r="F531" t="s">
+        <v>6</v>
+      </c>
+      <c r="G531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B532">
+        <v>98</v>
+      </c>
+      <c r="C532">
+        <v>75</v>
+      </c>
+      <c r="D532" t="s">
+        <v>31</v>
+      </c>
+      <c r="E532" t="s">
+        <v>16</v>
+      </c>
+      <c r="F532" t="s">
+        <v>7</v>
+      </c>
+      <c r="G532" t="s">
+        <v>3</v>
+      </c>
+      <c r="H532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B533">
+        <v>86</v>
+      </c>
+      <c r="C533">
+        <v>75</v>
+      </c>
+      <c r="D533" t="s">
+        <v>31</v>
+      </c>
+      <c r="E533" t="s">
+        <v>16</v>
+      </c>
+      <c r="F533" t="s">
+        <v>7</v>
+      </c>
+      <c r="G533" t="s">
+        <v>4</v>
+      </c>
+      <c r="H533">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="A534" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B534">
+        <v>77</v>
+      </c>
+      <c r="C534">
+        <v>75</v>
+      </c>
+      <c r="D534" t="s">
+        <v>31</v>
+      </c>
+      <c r="E534" t="s">
+        <v>16</v>
+      </c>
+      <c r="F534" t="s">
+        <v>7</v>
+      </c>
+      <c r="G534" t="s">
+        <v>5</v>
+      </c>
+      <c r="H534">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8">
+      <c r="A535" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B535">
+        <v>99</v>
+      </c>
+      <c r="C535">
+        <v>75</v>
+      </c>
+      <c r="D535" t="s">
+        <v>31</v>
+      </c>
+      <c r="E535" t="s">
+        <v>16</v>
+      </c>
+      <c r="F535" t="s">
+        <v>8</v>
+      </c>
+      <c r="G535" t="s">
+        <v>3</v>
+      </c>
+      <c r="H535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B536">
+        <v>88</v>
+      </c>
+      <c r="C536">
+        <v>75</v>
+      </c>
+      <c r="D536" t="s">
+        <v>31</v>
+      </c>
+      <c r="E536" t="s">
+        <v>16</v>
+      </c>
+      <c r="F536" t="s">
+        <v>8</v>
+      </c>
+      <c r="G536" t="s">
+        <v>4</v>
+      </c>
+      <c r="H536">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="D537" t="s">
+        <v>31</v>
+      </c>
+      <c r="E537" t="s">
+        <v>16</v>
+      </c>
+      <c r="F537" t="s">
+        <v>8</v>
+      </c>
+      <c r="G537" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B538">
+        <v>92</v>
+      </c>
+      <c r="C538">
+        <v>75</v>
+      </c>
+      <c r="D538" t="s">
+        <v>31</v>
+      </c>
+      <c r="E538" t="s">
+        <v>16</v>
+      </c>
+      <c r="F538" t="s">
+        <v>9</v>
+      </c>
+      <c r="G538" t="s">
+        <v>3</v>
+      </c>
+      <c r="H538">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B539">
+        <v>87</v>
+      </c>
+      <c r="C539">
+        <v>75</v>
+      </c>
+      <c r="D539" t="s">
+        <v>31</v>
+      </c>
+      <c r="E539" t="s">
+        <v>16</v>
+      </c>
+      <c r="F539" t="s">
+        <v>9</v>
+      </c>
+      <c r="G539" t="s">
+        <v>4</v>
+      </c>
+      <c r="H539">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="D540" t="s">
+        <v>31</v>
+      </c>
+      <c r="E540" t="s">
+        <v>16</v>
+      </c>
+      <c r="F540" t="s">
+        <v>9</v>
+      </c>
+      <c r="G540" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B541">
+        <v>99</v>
+      </c>
+      <c r="C541">
+        <v>75</v>
+      </c>
+      <c r="D541" t="s">
+        <v>31</v>
+      </c>
+      <c r="E541" t="s">
+        <v>16</v>
+      </c>
+      <c r="F541" t="s">
+        <v>10</v>
+      </c>
+      <c r="G541" t="s">
+        <v>3</v>
+      </c>
+      <c r="H541">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B542">
+        <v>91</v>
+      </c>
+      <c r="C542">
+        <v>75</v>
+      </c>
+      <c r="D542" t="s">
+        <v>31</v>
+      </c>
+      <c r="E542" t="s">
+        <v>16</v>
+      </c>
+      <c r="F542" t="s">
+        <v>10</v>
+      </c>
+      <c r="G542" t="s">
+        <v>4</v>
+      </c>
+      <c r="H542">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="D543" t="s">
+        <v>31</v>
+      </c>
+      <c r="E543" t="s">
+        <v>16</v>
+      </c>
+      <c r="F543" t="s">
+        <v>10</v>
+      </c>
+      <c r="G543" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B544">
+        <v>101</v>
+      </c>
+      <c r="C544">
+        <v>75</v>
+      </c>
+      <c r="D544" t="s">
+        <v>31</v>
+      </c>
+      <c r="E544" t="s">
+        <v>16</v>
+      </c>
+      <c r="F544" t="s">
+        <v>11</v>
+      </c>
+      <c r="G544" t="s">
+        <v>3</v>
+      </c>
+      <c r="H544">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B545">
+        <v>92</v>
+      </c>
+      <c r="C545">
+        <v>75</v>
+      </c>
+      <c r="D545" t="s">
+        <v>31</v>
+      </c>
+      <c r="E545" t="s">
+        <v>16</v>
+      </c>
+      <c r="F545" t="s">
+        <v>11</v>
+      </c>
+      <c r="G545" t="s">
+        <v>4</v>
+      </c>
+      <c r="H545">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B546">
+        <v>73</v>
+      </c>
+      <c r="C546">
+        <v>75</v>
+      </c>
+      <c r="D546" t="s">
+        <v>31</v>
+      </c>
+      <c r="E546" t="s">
+        <v>16</v>
+      </c>
+      <c r="F546" t="s">
+        <v>11</v>
+      </c>
+      <c r="G546" t="s">
+        <v>5</v>
+      </c>
+      <c r="H546">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B547">
+        <v>83</v>
+      </c>
+      <c r="C547">
+        <v>56</v>
+      </c>
+      <c r="D547" t="s">
+        <v>31</v>
+      </c>
+      <c r="E547" t="s">
+        <v>17</v>
+      </c>
+      <c r="F547" t="s">
+        <v>2</v>
+      </c>
+      <c r="G547" t="s">
+        <v>3</v>
+      </c>
+      <c r="H547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B548">
+        <v>71</v>
+      </c>
+      <c r="C548">
+        <v>48</v>
+      </c>
+      <c r="D548" t="s">
+        <v>31</v>
+      </c>
+      <c r="E548" t="s">
+        <v>17</v>
+      </c>
+      <c r="F548" t="s">
+        <v>2</v>
+      </c>
+      <c r="G548" t="s">
+        <v>4</v>
+      </c>
+      <c r="H548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8">
+      <c r="A549" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B549">
+        <v>75</v>
+      </c>
+      <c r="C549">
+        <v>48</v>
+      </c>
+      <c r="D549" t="s">
+        <v>31</v>
+      </c>
+      <c r="E549" t="s">
+        <v>17</v>
+      </c>
+      <c r="F549" t="s">
+        <v>2</v>
+      </c>
+      <c r="G549" t="s">
+        <v>5</v>
+      </c>
+      <c r="H549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8">
+      <c r="A550" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B550">
+        <v>82</v>
+      </c>
+      <c r="C550">
+        <v>56</v>
+      </c>
+      <c r="D550" t="s">
+        <v>31</v>
+      </c>
+      <c r="E550" t="s">
+        <v>17</v>
+      </c>
+      <c r="F550" t="s">
+        <v>6</v>
+      </c>
+      <c r="G550" t="s">
+        <v>3</v>
+      </c>
+      <c r="H550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8">
+      <c r="A551" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B551">
+        <v>72</v>
+      </c>
+      <c r="C551">
+        <v>56</v>
+      </c>
+      <c r="D551" t="s">
+        <v>31</v>
+      </c>
+      <c r="E551" t="s">
+        <v>17</v>
+      </c>
+      <c r="F551" t="s">
+        <v>6</v>
+      </c>
+      <c r="G551" t="s">
+        <v>4</v>
+      </c>
+      <c r="H551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8">
+      <c r="A552" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B552">
+        <v>69</v>
+      </c>
+      <c r="C552">
+        <v>56</v>
+      </c>
+      <c r="D552" t="s">
+        <v>31</v>
+      </c>
+      <c r="E552" t="s">
+        <v>17</v>
+      </c>
+      <c r="F552" t="s">
+        <v>6</v>
+      </c>
+      <c r="G552" t="s">
+        <v>5</v>
+      </c>
+      <c r="H552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="D553" t="s">
+        <v>31</v>
+      </c>
+      <c r="E553" t="s">
+        <v>17</v>
+      </c>
+      <c r="F553" t="s">
+        <v>7</v>
+      </c>
+      <c r="G553" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B554">
+        <v>75</v>
+      </c>
+      <c r="C554">
+        <v>56</v>
+      </c>
+      <c r="D554" t="s">
+        <v>31</v>
+      </c>
+      <c r="E554" t="s">
+        <v>17</v>
+      </c>
+      <c r="F554" t="s">
+        <v>7</v>
+      </c>
+      <c r="G554" t="s">
+        <v>4</v>
+      </c>
+      <c r="H554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B555">
+        <v>70</v>
+      </c>
+      <c r="C555">
+        <v>56</v>
+      </c>
+      <c r="D555" t="s">
+        <v>31</v>
+      </c>
+      <c r="E555" t="s">
+        <v>17</v>
+      </c>
+      <c r="F555" t="s">
+        <v>7</v>
+      </c>
+      <c r="G555" t="s">
+        <v>5</v>
+      </c>
+      <c r="H555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="D556" t="s">
+        <v>31</v>
+      </c>
+      <c r="E556" t="s">
+        <v>17</v>
+      </c>
+      <c r="F556" t="s">
+        <v>8</v>
+      </c>
+      <c r="G556" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B557">
+        <v>76</v>
+      </c>
+      <c r="C557">
+        <v>56</v>
+      </c>
+      <c r="D557" t="s">
+        <v>31</v>
+      </c>
+      <c r="E557" t="s">
+        <v>17</v>
+      </c>
+      <c r="F557" t="s">
+        <v>8</v>
+      </c>
+      <c r="G557" t="s">
+        <v>4</v>
+      </c>
+      <c r="H557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B558">
+        <v>68</v>
+      </c>
+      <c r="C558">
+        <v>56</v>
+      </c>
+      <c r="D558" t="s">
+        <v>31</v>
+      </c>
+      <c r="E558" t="s">
+        <v>17</v>
+      </c>
+      <c r="F558" t="s">
+        <v>8</v>
+      </c>
+      <c r="G558" t="s">
+        <v>5</v>
+      </c>
+      <c r="H558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="D559" t="s">
+        <v>31</v>
+      </c>
+      <c r="E559" t="s">
+        <v>17</v>
+      </c>
+      <c r="F559" t="s">
+        <v>9</v>
+      </c>
+      <c r="G559" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B560">
+        <v>76</v>
+      </c>
+      <c r="C560">
+        <v>56</v>
+      </c>
+      <c r="D560" t="s">
+        <v>31</v>
+      </c>
+      <c r="E560" t="s">
+        <v>17</v>
+      </c>
+      <c r="F560" t="s">
+        <v>9</v>
+      </c>
+      <c r="G560" t="s">
+        <v>4</v>
+      </c>
+      <c r="H560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B561">
+        <v>70</v>
+      </c>
+      <c r="C561">
+        <v>56</v>
+      </c>
+      <c r="D561" t="s">
+        <v>31</v>
+      </c>
+      <c r="E561" t="s">
+        <v>17</v>
+      </c>
+      <c r="F561" t="s">
+        <v>9</v>
+      </c>
+      <c r="G561" t="s">
+        <v>5</v>
+      </c>
+      <c r="H561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="D562" t="s">
+        <v>31</v>
+      </c>
+      <c r="E562" t="s">
+        <v>17</v>
+      </c>
+      <c r="F562" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B563">
+        <v>77</v>
+      </c>
+      <c r="C563">
+        <v>56</v>
+      </c>
+      <c r="D563" t="s">
+        <v>31</v>
+      </c>
+      <c r="E563" t="s">
+        <v>17</v>
+      </c>
+      <c r="F563" t="s">
+        <v>10</v>
+      </c>
+      <c r="G563" t="s">
+        <v>4</v>
+      </c>
+      <c r="H563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B564">
+        <v>65</v>
+      </c>
+      <c r="C564">
+        <v>56</v>
+      </c>
+      <c r="D564" t="s">
+        <v>31</v>
+      </c>
+      <c r="E564" t="s">
+        <v>17</v>
+      </c>
+      <c r="F564" t="s">
+        <v>10</v>
+      </c>
+      <c r="G564" t="s">
+        <v>5</v>
+      </c>
+      <c r="H564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="D565" t="s">
+        <v>31</v>
+      </c>
+      <c r="E565" t="s">
+        <v>17</v>
+      </c>
+      <c r="F565" t="s">
+        <v>11</v>
+      </c>
+      <c r="G565" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B566">
+        <v>76</v>
+      </c>
+      <c r="C566">
+        <v>56</v>
+      </c>
+      <c r="D566" t="s">
+        <v>31</v>
+      </c>
+      <c r="E566" t="s">
+        <v>17</v>
+      </c>
+      <c r="F566" t="s">
+        <v>11</v>
+      </c>
+      <c r="G566" t="s">
+        <v>4</v>
+      </c>
+      <c r="H566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>5017</v>
+      </c>
+      <c r="B567">
+        <v>62</v>
+      </c>
+      <c r="C567">
+        <v>56</v>
+      </c>
+      <c r="D567" t="s">
+        <v>31</v>
+      </c>
+      <c r="E567" t="s">
+        <v>17</v>
+      </c>
+      <c r="F567" t="s">
+        <v>11</v>
+      </c>
+      <c r="G567" t="s">
+        <v>5</v>
+      </c>
+      <c r="H567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B568">
+        <v>72</v>
+      </c>
+      <c r="C568">
+        <v>12</v>
+      </c>
+      <c r="D568" t="s">
+        <v>31</v>
+      </c>
+      <c r="E568" t="s">
+        <v>18</v>
+      </c>
+      <c r="F568" t="s">
+        <v>2</v>
+      </c>
+      <c r="G568" t="s">
+        <v>3</v>
+      </c>
+      <c r="H568">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="D569" t="s">
+        <v>31</v>
+      </c>
+      <c r="E569" t="s">
+        <v>18</v>
+      </c>
+      <c r="F569" t="s">
+        <v>2</v>
+      </c>
+      <c r="G569" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B570">
+        <v>70</v>
+      </c>
+      <c r="C570">
+        <v>48</v>
+      </c>
+      <c r="D570" t="s">
+        <v>31</v>
+      </c>
+      <c r="E570" t="s">
+        <v>18</v>
+      </c>
+      <c r="F570" t="s">
+        <v>2</v>
+      </c>
+      <c r="G570" t="s">
+        <v>5</v>
+      </c>
+      <c r="H570">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B571">
+        <v>71</v>
+      </c>
+      <c r="C571">
+        <v>48</v>
+      </c>
+      <c r="D571" t="s">
+        <v>31</v>
+      </c>
+      <c r="E571" t="s">
+        <v>18</v>
+      </c>
+      <c r="F571" t="s">
+        <v>6</v>
+      </c>
+      <c r="G571" t="s">
+        <v>3</v>
+      </c>
+      <c r="H571">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B572">
+        <v>75</v>
+      </c>
+      <c r="C572">
+        <v>48</v>
+      </c>
+      <c r="D572" t="s">
+        <v>31</v>
+      </c>
+      <c r="E572" t="s">
+        <v>18</v>
+      </c>
+      <c r="F572" t="s">
+        <v>6</v>
+      </c>
+      <c r="G572" t="s">
+        <v>4</v>
+      </c>
+      <c r="H572">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B573">
+        <v>69</v>
+      </c>
+      <c r="C573">
+        <v>48</v>
+      </c>
+      <c r="D573" t="s">
+        <v>31</v>
+      </c>
+      <c r="E573" t="s">
+        <v>18</v>
+      </c>
+      <c r="F573" t="s">
+        <v>6</v>
+      </c>
+      <c r="G573" t="s">
+        <v>5</v>
+      </c>
+      <c r="H573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B574">
+        <v>75</v>
+      </c>
+      <c r="C574">
+        <v>48</v>
+      </c>
+      <c r="D574" t="s">
+        <v>31</v>
+      </c>
+      <c r="E574" t="s">
+        <v>18</v>
+      </c>
+      <c r="F574" t="s">
+        <v>7</v>
+      </c>
+      <c r="G574" t="s">
+        <v>3</v>
+      </c>
+      <c r="H574">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B575">
+        <v>75</v>
+      </c>
+      <c r="C575">
+        <v>48</v>
+      </c>
+      <c r="D575" t="s">
+        <v>31</v>
+      </c>
+      <c r="E575" t="s">
+        <v>18</v>
+      </c>
+      <c r="F575" t="s">
+        <v>7</v>
+      </c>
+      <c r="G575" t="s">
+        <v>4</v>
+      </c>
+      <c r="H575">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B576">
+        <v>70</v>
+      </c>
+      <c r="C576">
+        <v>48</v>
+      </c>
+      <c r="D576" t="s">
+        <v>31</v>
+      </c>
+      <c r="E576" t="s">
+        <v>18</v>
+      </c>
+      <c r="F576" t="s">
+        <v>7</v>
+      </c>
+      <c r="G576" t="s">
+        <v>5</v>
+      </c>
+      <c r="H576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B577">
+        <v>72</v>
+      </c>
+      <c r="C577">
+        <v>48</v>
+      </c>
+      <c r="D577" t="s">
+        <v>31</v>
+      </c>
+      <c r="E577" t="s">
+        <v>18</v>
+      </c>
+      <c r="F577" t="s">
+        <v>8</v>
+      </c>
+      <c r="G577" t="s">
+        <v>3</v>
+      </c>
+      <c r="H577">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B578">
+        <v>72</v>
+      </c>
+      <c r="C578">
+        <v>48</v>
+      </c>
+      <c r="D578" t="s">
+        <v>31</v>
+      </c>
+      <c r="E578" t="s">
+        <v>18</v>
+      </c>
+      <c r="F578" t="s">
+        <v>8</v>
+      </c>
+      <c r="G578" t="s">
+        <v>4</v>
+      </c>
+      <c r="H578">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B579">
+        <v>70</v>
+      </c>
+      <c r="C579">
+        <v>48</v>
+      </c>
+      <c r="D579" t="s">
+        <v>31</v>
+      </c>
+      <c r="E579" t="s">
+        <v>18</v>
+      </c>
+      <c r="F579" t="s">
+        <v>8</v>
+      </c>
+      <c r="G579" t="s">
+        <v>5</v>
+      </c>
+      <c r="H579">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B580">
+        <v>76</v>
+      </c>
+      <c r="C580">
+        <v>48</v>
+      </c>
+      <c r="D580" t="s">
+        <v>31</v>
+      </c>
+      <c r="E580" t="s">
+        <v>18</v>
+      </c>
+      <c r="F580" t="s">
+        <v>9</v>
+      </c>
+      <c r="G580" t="s">
+        <v>3</v>
+      </c>
+      <c r="H580">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B581">
+        <v>75</v>
+      </c>
+      <c r="C581">
+        <v>48</v>
+      </c>
+      <c r="D581" t="s">
+        <v>31</v>
+      </c>
+      <c r="E581" t="s">
+        <v>18</v>
+      </c>
+      <c r="F581" t="s">
+        <v>9</v>
+      </c>
+      <c r="G581" t="s">
+        <v>4</v>
+      </c>
+      <c r="H581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B582">
+        <v>71</v>
+      </c>
+      <c r="C582">
+        <v>48</v>
+      </c>
+      <c r="D582" t="s">
+        <v>31</v>
+      </c>
+      <c r="E582" t="s">
+        <v>18</v>
+      </c>
+      <c r="F582" t="s">
+        <v>9</v>
+      </c>
+      <c r="G582" t="s">
+        <v>5</v>
+      </c>
+      <c r="H582">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="D583" t="s">
+        <v>31</v>
+      </c>
+      <c r="E583" t="s">
+        <v>18</v>
+      </c>
+      <c r="F583" t="s">
+        <v>10</v>
+      </c>
+      <c r="G583" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B584">
+        <v>72</v>
+      </c>
+      <c r="C584">
+        <v>48</v>
+      </c>
+      <c r="D584" t="s">
+        <v>31</v>
+      </c>
+      <c r="E584" t="s">
+        <v>18</v>
+      </c>
+      <c r="F584" t="s">
+        <v>10</v>
+      </c>
+      <c r="G584" t="s">
+        <v>4</v>
+      </c>
+      <c r="H584">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B585">
+        <v>71</v>
+      </c>
+      <c r="C585">
+        <v>48</v>
+      </c>
+      <c r="D585" t="s">
+        <v>31</v>
+      </c>
+      <c r="E585" t="s">
+        <v>18</v>
+      </c>
+      <c r="F585" t="s">
+        <v>10</v>
+      </c>
+      <c r="G585" t="s">
+        <v>5</v>
+      </c>
+      <c r="H585">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="D586" t="s">
+        <v>31</v>
+      </c>
+      <c r="E586" t="s">
+        <v>18</v>
+      </c>
+      <c r="F586" t="s">
+        <v>11</v>
+      </c>
+      <c r="G586" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B587">
+        <v>72</v>
+      </c>
+      <c r="C587">
+        <v>48</v>
+      </c>
+      <c r="D587" t="s">
+        <v>31</v>
+      </c>
+      <c r="E587" t="s">
+        <v>18</v>
+      </c>
+      <c r="F587" t="s">
+        <v>11</v>
+      </c>
+      <c r="G587" t="s">
+        <v>4</v>
+      </c>
+      <c r="H587">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B588">
+        <v>71</v>
+      </c>
+      <c r="C588">
+        <v>48</v>
+      </c>
+      <c r="D588" t="s">
+        <v>31</v>
+      </c>
+      <c r="E588" t="s">
+        <v>18</v>
+      </c>
+      <c r="F588" t="s">
+        <v>11</v>
+      </c>
+      <c r="G588" t="s">
+        <v>5</v>
+      </c>
+      <c r="H588">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B589">
+        <v>75</v>
+      </c>
+      <c r="C589">
+        <v>56</v>
+      </c>
+      <c r="D589" t="s">
+        <v>31</v>
+      </c>
+      <c r="E589" t="s">
+        <v>19</v>
+      </c>
+      <c r="F589" t="s">
+        <v>2</v>
+      </c>
+      <c r="G589" t="s">
+        <v>3</v>
+      </c>
+      <c r="H589">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B590">
+        <v>70</v>
+      </c>
+      <c r="C590">
+        <v>56</v>
+      </c>
+      <c r="D590" t="s">
+        <v>31</v>
+      </c>
+      <c r="E590" t="s">
+        <v>19</v>
+      </c>
+      <c r="F590" t="s">
+        <v>2</v>
+      </c>
+      <c r="G590" t="s">
+        <v>4</v>
+      </c>
+      <c r="H590">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B591">
+        <v>72</v>
+      </c>
+      <c r="C591">
+        <v>56</v>
+      </c>
+      <c r="D591" t="s">
+        <v>31</v>
+      </c>
+      <c r="E591" t="s">
+        <v>19</v>
+      </c>
+      <c r="F591" t="s">
+        <v>2</v>
+      </c>
+      <c r="G591" t="s">
+        <v>5</v>
+      </c>
+      <c r="H591">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B592">
+        <v>72</v>
+      </c>
+      <c r="C592">
+        <v>56</v>
+      </c>
+      <c r="D592" t="s">
+        <v>31</v>
+      </c>
+      <c r="E592" t="s">
+        <v>19</v>
+      </c>
+      <c r="F592" t="s">
+        <v>6</v>
+      </c>
+      <c r="G592" t="s">
+        <v>3</v>
+      </c>
+      <c r="H592">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B593">
+        <v>71</v>
+      </c>
+      <c r="C593">
+        <v>56</v>
+      </c>
+      <c r="D593" t="s">
+        <v>31</v>
+      </c>
+      <c r="E593" t="s">
+        <v>19</v>
+      </c>
+      <c r="F593" t="s">
+        <v>6</v>
+      </c>
+      <c r="G593" t="s">
+        <v>4</v>
+      </c>
+      <c r="H593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B594">
+        <v>72</v>
+      </c>
+      <c r="C594">
+        <v>56</v>
+      </c>
+      <c r="D594" t="s">
+        <v>31</v>
+      </c>
+      <c r="E594" t="s">
+        <v>19</v>
+      </c>
+      <c r="F594" t="s">
+        <v>6</v>
+      </c>
+      <c r="G594" t="s">
+        <v>5</v>
+      </c>
+      <c r="H594">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B595">
+        <v>75</v>
+      </c>
+      <c r="C595">
+        <v>56</v>
+      </c>
+      <c r="D595" t="s">
+        <v>31</v>
+      </c>
+      <c r="E595" t="s">
+        <v>19</v>
+      </c>
+      <c r="F595" t="s">
+        <v>7</v>
+      </c>
+      <c r="G595" t="s">
+        <v>3</v>
+      </c>
+      <c r="H595">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B596">
+        <v>71</v>
+      </c>
+      <c r="C596">
+        <v>56</v>
+      </c>
+      <c r="D596" t="s">
+        <v>31</v>
+      </c>
+      <c r="E596" t="s">
+        <v>19</v>
+      </c>
+      <c r="F596" t="s">
+        <v>7</v>
+      </c>
+      <c r="G596" t="s">
+        <v>4</v>
+      </c>
+      <c r="H596">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B597">
+        <v>71</v>
+      </c>
+      <c r="C597">
+        <v>56</v>
+      </c>
+      <c r="D597" t="s">
+        <v>31</v>
+      </c>
+      <c r="E597" t="s">
+        <v>19</v>
+      </c>
+      <c r="F597" t="s">
+        <v>7</v>
+      </c>
+      <c r="G597" t="s">
+        <v>5</v>
+      </c>
+      <c r="H597">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B598">
+        <v>75</v>
+      </c>
+      <c r="C598">
+        <v>56</v>
+      </c>
+      <c r="D598" t="s">
+        <v>31</v>
+      </c>
+      <c r="E598" t="s">
+        <v>19</v>
+      </c>
+      <c r="F598" t="s">
+        <v>8</v>
+      </c>
+      <c r="G598" t="s">
+        <v>3</v>
+      </c>
+      <c r="H598">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B599">
+        <v>71</v>
+      </c>
+      <c r="C599">
+        <v>56</v>
+      </c>
+      <c r="D599" t="s">
+        <v>31</v>
+      </c>
+      <c r="E599" t="s">
+        <v>19</v>
+      </c>
+      <c r="F599" t="s">
+        <v>8</v>
+      </c>
+      <c r="G599" t="s">
+        <v>4</v>
+      </c>
+      <c r="H599">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B600">
+        <v>71</v>
+      </c>
+      <c r="C600">
+        <v>56</v>
+      </c>
+      <c r="D600" t="s">
+        <v>31</v>
+      </c>
+      <c r="E600" t="s">
+        <v>19</v>
+      </c>
+      <c r="F600" t="s">
+        <v>8</v>
+      </c>
+      <c r="G600" t="s">
+        <v>5</v>
+      </c>
+      <c r="H600">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B601">
+        <v>72</v>
+      </c>
+      <c r="C601">
+        <v>56</v>
+      </c>
+      <c r="D601" t="s">
+        <v>31</v>
+      </c>
+      <c r="E601" t="s">
+        <v>19</v>
+      </c>
+      <c r="F601" t="s">
+        <v>9</v>
+      </c>
+      <c r="G601" t="s">
+        <v>3</v>
+      </c>
+      <c r="H601">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B602">
+        <v>71</v>
+      </c>
+      <c r="C602">
+        <v>56</v>
+      </c>
+      <c r="D602" t="s">
+        <v>31</v>
+      </c>
+      <c r="E602" t="s">
+        <v>19</v>
+      </c>
+      <c r="F602" t="s">
+        <v>9</v>
+      </c>
+      <c r="G602" t="s">
+        <v>4</v>
+      </c>
+      <c r="H602">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B603">
+        <v>72</v>
+      </c>
+      <c r="C603">
+        <v>56</v>
+      </c>
+      <c r="D603" t="s">
+        <v>31</v>
+      </c>
+      <c r="E603" t="s">
+        <v>19</v>
+      </c>
+      <c r="F603" t="s">
+        <v>9</v>
+      </c>
+      <c r="G603" t="s">
+        <v>5</v>
+      </c>
+      <c r="H603">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B604">
+        <v>75</v>
+      </c>
+      <c r="C604">
+        <v>56</v>
+      </c>
+      <c r="D604" t="s">
+        <v>31</v>
+      </c>
+      <c r="E604" t="s">
+        <v>19</v>
+      </c>
+      <c r="F604" t="s">
+        <v>10</v>
+      </c>
+      <c r="G604" t="s">
+        <v>3</v>
+      </c>
+      <c r="H604">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B605">
+        <v>75</v>
+      </c>
+      <c r="C605">
+        <v>56</v>
+      </c>
+      <c r="D605" t="s">
+        <v>31</v>
+      </c>
+      <c r="E605" t="s">
+        <v>19</v>
+      </c>
+      <c r="F605" t="s">
+        <v>10</v>
+      </c>
+      <c r="G605" t="s">
+        <v>4</v>
+      </c>
+      <c r="H605">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B606">
+        <v>72</v>
+      </c>
+      <c r="C606">
+        <v>56</v>
+      </c>
+      <c r="D606" t="s">
+        <v>31</v>
+      </c>
+      <c r="E606" t="s">
+        <v>19</v>
+      </c>
+      <c r="F606" t="s">
+        <v>10</v>
+      </c>
+      <c r="G606" t="s">
+        <v>5</v>
+      </c>
+      <c r="H606">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B607">
+        <v>75</v>
+      </c>
+      <c r="C607">
+        <v>56</v>
+      </c>
+      <c r="D607" t="s">
+        <v>31</v>
+      </c>
+      <c r="E607" t="s">
+        <v>19</v>
+      </c>
+      <c r="F607" t="s">
+        <v>11</v>
+      </c>
+      <c r="G607" t="s">
+        <v>3</v>
+      </c>
+      <c r="H607">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B608">
+        <v>72</v>
+      </c>
+      <c r="C608">
+        <v>56</v>
+      </c>
+      <c r="D608" t="s">
+        <v>31</v>
+      </c>
+      <c r="E608" t="s">
+        <v>19</v>
+      </c>
+      <c r="F608" t="s">
+        <v>11</v>
+      </c>
+      <c r="G608" t="s">
+        <v>4</v>
+      </c>
+      <c r="H608">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B609">
+        <v>72</v>
+      </c>
+      <c r="C609">
+        <v>56</v>
+      </c>
+      <c r="D609" t="s">
+        <v>31</v>
+      </c>
+      <c r="E609" t="s">
+        <v>19</v>
+      </c>
+      <c r="F609" t="s">
+        <v>11</v>
+      </c>
+      <c r="G609" t="s">
+        <v>5</v>
+      </c>
+      <c r="H609">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="D610" t="s">
+        <v>31</v>
+      </c>
+      <c r="E610" t="s">
+        <v>20</v>
+      </c>
+      <c r="F610" t="s">
+        <v>2</v>
+      </c>
+      <c r="G610" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="D611" t="s">
+        <v>31</v>
+      </c>
+      <c r="E611" t="s">
+        <v>20</v>
+      </c>
+      <c r="F611" t="s">
+        <v>2</v>
+      </c>
+      <c r="G611" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B612">
+        <v>63</v>
+      </c>
+      <c r="C612">
+        <v>60</v>
+      </c>
+      <c r="D612" t="s">
+        <v>31</v>
+      </c>
+      <c r="E612" t="s">
+        <v>20</v>
+      </c>
+      <c r="F612" t="s">
+        <v>2</v>
+      </c>
+      <c r="G612" t="s">
+        <v>5</v>
+      </c>
+      <c r="H612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="D613" t="s">
+        <v>31</v>
+      </c>
+      <c r="E613" t="s">
+        <v>20</v>
+      </c>
+      <c r="F613" t="s">
+        <v>6</v>
+      </c>
+      <c r="G613" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B614">
+        <v>62</v>
+      </c>
+      <c r="C614">
+        <v>60</v>
+      </c>
+      <c r="D614" t="s">
+        <v>31</v>
+      </c>
+      <c r="E614" t="s">
+        <v>20</v>
+      </c>
+      <c r="F614" t="s">
+        <v>6</v>
+      </c>
+      <c r="G614" t="s">
+        <v>4</v>
+      </c>
+      <c r="H614">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="D615" t="s">
+        <v>31</v>
+      </c>
+      <c r="E615" t="s">
+        <v>20</v>
+      </c>
+      <c r="F615" t="s">
+        <v>6</v>
+      </c>
+      <c r="G615" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="D616" t="s">
+        <v>31</v>
+      </c>
+      <c r="E616" t="s">
+        <v>20</v>
+      </c>
+      <c r="F616" t="s">
+        <v>7</v>
+      </c>
+      <c r="G616" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B617">
+        <v>62</v>
+      </c>
+      <c r="C617">
+        <v>60</v>
+      </c>
+      <c r="D617" t="s">
+        <v>31</v>
+      </c>
+      <c r="E617" t="s">
+        <v>20</v>
+      </c>
+      <c r="F617" t="s">
+        <v>7</v>
+      </c>
+      <c r="G617" t="s">
+        <v>4</v>
+      </c>
+      <c r="H617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="D618" t="s">
+        <v>31</v>
+      </c>
+      <c r="E618" t="s">
+        <v>20</v>
+      </c>
+      <c r="F618" t="s">
+        <v>7</v>
+      </c>
+      <c r="G618" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="D619" t="s">
+        <v>31</v>
+      </c>
+      <c r="E619" t="s">
+        <v>20</v>
+      </c>
+      <c r="F619" t="s">
+        <v>8</v>
+      </c>
+      <c r="G619" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="D620" t="s">
+        <v>31</v>
+      </c>
+      <c r="E620" t="s">
+        <v>20</v>
+      </c>
+      <c r="F620" t="s">
+        <v>8</v>
+      </c>
+      <c r="G620" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="D621" t="s">
+        <v>31</v>
+      </c>
+      <c r="E621" t="s">
+        <v>20</v>
+      </c>
+      <c r="F621" t="s">
+        <v>8</v>
+      </c>
+      <c r="G621" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B622">
+        <v>62</v>
+      </c>
+      <c r="C622">
+        <v>60</v>
+      </c>
+      <c r="D622" t="s">
+        <v>31</v>
+      </c>
+      <c r="E622" t="s">
+        <v>20</v>
+      </c>
+      <c r="F622" t="s">
+        <v>9</v>
+      </c>
+      <c r="G622" t="s">
+        <v>3</v>
+      </c>
+      <c r="H622">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B623">
+        <v>62</v>
+      </c>
+      <c r="C623">
+        <v>60</v>
+      </c>
+      <c r="D623" t="s">
+        <v>31</v>
+      </c>
+      <c r="E623" t="s">
+        <v>20</v>
+      </c>
+      <c r="F623" t="s">
+        <v>9</v>
+      </c>
+      <c r="G623" t="s">
+        <v>4</v>
+      </c>
+      <c r="H623">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="D624" t="s">
+        <v>31</v>
+      </c>
+      <c r="E624" t="s">
+        <v>20</v>
+      </c>
+      <c r="F624" t="s">
+        <v>9</v>
+      </c>
+      <c r="G624" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B625">
+        <v>62</v>
+      </c>
+      <c r="C625">
+        <v>60</v>
+      </c>
+      <c r="D625" t="s">
+        <v>31</v>
+      </c>
+      <c r="E625" t="s">
+        <v>20</v>
+      </c>
+      <c r="F625" t="s">
+        <v>10</v>
+      </c>
+      <c r="G625" t="s">
+        <v>3</v>
+      </c>
+      <c r="H625">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B626">
+        <v>63</v>
+      </c>
+      <c r="C626">
+        <v>60</v>
+      </c>
+      <c r="D626" t="s">
+        <v>31</v>
+      </c>
+      <c r="E626" t="s">
+        <v>20</v>
+      </c>
+      <c r="F626" t="s">
+        <v>10</v>
+      </c>
+      <c r="G626" t="s">
+        <v>4</v>
+      </c>
+      <c r="H626">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="D627" t="s">
+        <v>31</v>
+      </c>
+      <c r="E627" t="s">
+        <v>20</v>
+      </c>
+      <c r="F627" t="s">
+        <v>10</v>
+      </c>
+      <c r="G627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B628">
+        <v>63</v>
+      </c>
+      <c r="C628">
+        <v>60</v>
+      </c>
+      <c r="D628" t="s">
+        <v>31</v>
+      </c>
+      <c r="E628" t="s">
+        <v>20</v>
+      </c>
+      <c r="F628" t="s">
+        <v>11</v>
+      </c>
+      <c r="G628" t="s">
+        <v>3</v>
+      </c>
+      <c r="H628">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="D629" t="s">
+        <v>31</v>
+      </c>
+      <c r="E629" t="s">
+        <v>20</v>
+      </c>
+      <c r="F629" t="s">
+        <v>11</v>
+      </c>
+      <c r="G629" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="D630" t="s">
+        <v>31</v>
+      </c>
+      <c r="E630" t="s">
+        <v>20</v>
+      </c>
+      <c r="F630" t="s">
+        <v>11</v>
+      </c>
+      <c r="G630" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="D631" t="s">
+        <v>31</v>
+      </c>
+      <c r="E631" t="s">
+        <v>21</v>
+      </c>
+      <c r="F631" t="s">
+        <v>2</v>
+      </c>
+      <c r="G631" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="D632" t="s">
+        <v>31</v>
+      </c>
+      <c r="E632" t="s">
+        <v>21</v>
+      </c>
+      <c r="F632" t="s">
+        <v>2</v>
+      </c>
+      <c r="G632" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B633">
+        <v>91</v>
+      </c>
+      <c r="C633">
+        <v>51</v>
+      </c>
+      <c r="D633" t="s">
+        <v>31</v>
+      </c>
+      <c r="E633" t="s">
+        <v>21</v>
+      </c>
+      <c r="F633" t="s">
+        <v>2</v>
+      </c>
+      <c r="G633" t="s">
+        <v>5</v>
+      </c>
+      <c r="H633">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="A634" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B634">
+        <v>94</v>
+      </c>
+      <c r="C634">
+        <v>71</v>
+      </c>
+      <c r="D634" t="s">
+        <v>31</v>
+      </c>
+      <c r="E634" t="s">
+        <v>21</v>
+      </c>
+      <c r="F634" t="s">
+        <v>6</v>
+      </c>
+      <c r="G634" t="s">
+        <v>3</v>
+      </c>
+      <c r="H634">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="A635" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B635">
+        <v>93</v>
+      </c>
+      <c r="C635">
+        <v>75</v>
+      </c>
+      <c r="D635" t="s">
+        <v>31</v>
+      </c>
+      <c r="E635" t="s">
+        <v>21</v>
+      </c>
+      <c r="F635" t="s">
+        <v>6</v>
+      </c>
+      <c r="G635" t="s">
+        <v>4</v>
+      </c>
+      <c r="H635">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B636">
+        <v>88</v>
+      </c>
+      <c r="C636">
+        <v>75</v>
+      </c>
+      <c r="D636" t="s">
+        <v>31</v>
+      </c>
+      <c r="E636" t="s">
+        <v>21</v>
+      </c>
+      <c r="F636" t="s">
+        <v>6</v>
+      </c>
+      <c r="G636" t="s">
+        <v>5</v>
+      </c>
+      <c r="H636">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="A637" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B637">
+        <v>94</v>
+      </c>
+      <c r="C637">
+        <v>75</v>
+      </c>
+      <c r="D637" t="s">
+        <v>31</v>
+      </c>
+      <c r="E637" t="s">
+        <v>21</v>
+      </c>
+      <c r="F637" t="s">
+        <v>7</v>
+      </c>
+      <c r="G637" t="s">
+        <v>3</v>
+      </c>
+      <c r="H637">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="A638" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B638">
+        <v>93</v>
+      </c>
+      <c r="C638">
+        <v>75</v>
+      </c>
+      <c r="D638" t="s">
+        <v>31</v>
+      </c>
+      <c r="E638" t="s">
+        <v>21</v>
+      </c>
+      <c r="F638" t="s">
+        <v>7</v>
+      </c>
+      <c r="G638" t="s">
+        <v>4</v>
+      </c>
+      <c r="H638">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B639">
+        <v>87</v>
+      </c>
+      <c r="C639">
+        <v>75</v>
+      </c>
+      <c r="D639" t="s">
+        <v>31</v>
+      </c>
+      <c r="E639" t="s">
+        <v>21</v>
+      </c>
+      <c r="F639" t="s">
+        <v>7</v>
+      </c>
+      <c r="G639" t="s">
+        <v>5</v>
+      </c>
+      <c r="H639">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B640">
+        <v>95</v>
+      </c>
+      <c r="C640">
+        <v>75</v>
+      </c>
+      <c r="D640" t="s">
+        <v>31</v>
+      </c>
+      <c r="E640" t="s">
+        <v>21</v>
+      </c>
+      <c r="F640" t="s">
+        <v>8</v>
+      </c>
+      <c r="G640" t="s">
+        <v>3</v>
+      </c>
+      <c r="H640">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="A641" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B641">
+        <v>93</v>
+      </c>
+      <c r="C641">
+        <v>75</v>
+      </c>
+      <c r="D641" t="s">
+        <v>31</v>
+      </c>
+      <c r="E641" t="s">
+        <v>21</v>
+      </c>
+      <c r="F641" t="s">
+        <v>8</v>
+      </c>
+      <c r="G641" t="s">
+        <v>4</v>
+      </c>
+      <c r="H641">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="A642" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B642">
+        <v>91</v>
+      </c>
+      <c r="C642">
+        <v>75</v>
+      </c>
+      <c r="D642" t="s">
+        <v>31</v>
+      </c>
+      <c r="E642" t="s">
+        <v>21</v>
+      </c>
+      <c r="F642" t="s">
+        <v>8</v>
+      </c>
+      <c r="G642" t="s">
+        <v>5</v>
+      </c>
+      <c r="H642">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="D643" t="s">
+        <v>31</v>
+      </c>
+      <c r="E643" t="s">
+        <v>21</v>
+      </c>
+      <c r="F643" t="s">
+        <v>9</v>
+      </c>
+      <c r="G643" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="A644" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B644">
+        <v>94</v>
+      </c>
+      <c r="C644">
+        <v>75</v>
+      </c>
+      <c r="D644" t="s">
+        <v>31</v>
+      </c>
+      <c r="E644" t="s">
+        <v>21</v>
+      </c>
+      <c r="F644" t="s">
+        <v>9</v>
+      </c>
+      <c r="G644" t="s">
+        <v>4</v>
+      </c>
+      <c r="H644">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B645">
+        <v>91</v>
+      </c>
+      <c r="C645">
+        <v>75</v>
+      </c>
+      <c r="D645" t="s">
+        <v>31</v>
+      </c>
+      <c r="E645" t="s">
+        <v>21</v>
+      </c>
+      <c r="F645" t="s">
+        <v>9</v>
+      </c>
+      <c r="G645" t="s">
+        <v>5</v>
+      </c>
+      <c r="H645">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
+      <c r="D646" t="s">
+        <v>31</v>
+      </c>
+      <c r="E646" t="s">
+        <v>21</v>
+      </c>
+      <c r="F646" t="s">
+        <v>10</v>
+      </c>
+      <c r="G646" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
+      <c r="A647" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B647">
+        <v>94</v>
+      </c>
+      <c r="C647">
+        <v>75</v>
+      </c>
+      <c r="D647" t="s">
+        <v>31</v>
+      </c>
+      <c r="E647" t="s">
+        <v>21</v>
+      </c>
+      <c r="F647" t="s">
+        <v>10</v>
+      </c>
+      <c r="G647" t="s">
+        <v>4</v>
+      </c>
+      <c r="H647">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
+      <c r="A648" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B648">
+        <v>91</v>
+      </c>
+      <c r="C648">
+        <v>75</v>
+      </c>
+      <c r="D648" t="s">
+        <v>31</v>
+      </c>
+      <c r="E648" t="s">
+        <v>21</v>
+      </c>
+      <c r="F648" t="s">
+        <v>10</v>
+      </c>
+      <c r="G648" t="s">
+        <v>5</v>
+      </c>
+      <c r="H648">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
+      <c r="D649" t="s">
+        <v>31</v>
+      </c>
+      <c r="E649" t="s">
+        <v>21</v>
+      </c>
+      <c r="F649" t="s">
+        <v>11</v>
+      </c>
+      <c r="G649" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
+      <c r="A650" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B650">
+        <v>94</v>
+      </c>
+      <c r="C650">
+        <v>75</v>
+      </c>
+      <c r="D650" t="s">
+        <v>31</v>
+      </c>
+      <c r="E650" t="s">
+        <v>21</v>
+      </c>
+      <c r="F650" t="s">
+        <v>11</v>
+      </c>
+      <c r="G650" t="s">
+        <v>4</v>
+      </c>
+      <c r="H650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
+      <c r="A651" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B651">
+        <v>91</v>
+      </c>
+      <c r="C651">
+        <v>75</v>
+      </c>
+      <c r="D651" t="s">
+        <v>31</v>
+      </c>
+      <c r="E651" t="s">
+        <v>21</v>
+      </c>
+      <c r="F651" t="s">
+        <v>11</v>
+      </c>
+      <c r="G651" t="s">
+        <v>5</v>
+      </c>
+      <c r="H651">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="D652" t="s">
+        <v>31</v>
+      </c>
+      <c r="E652" t="s">
+        <v>22</v>
+      </c>
+      <c r="F652" t="s">
+        <v>2</v>
+      </c>
+      <c r="G652" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="D653" t="s">
+        <v>31</v>
+      </c>
+      <c r="E653" t="s">
+        <v>22</v>
+      </c>
+      <c r="F653" t="s">
+        <v>2</v>
+      </c>
+      <c r="G653" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="D654" t="s">
+        <v>31</v>
+      </c>
+      <c r="E654" t="s">
+        <v>22</v>
+      </c>
+      <c r="F654" t="s">
+        <v>2</v>
+      </c>
+      <c r="G654" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="D655" t="s">
+        <v>31</v>
+      </c>
+      <c r="E655" t="s">
+        <v>22</v>
+      </c>
+      <c r="F655" t="s">
+        <v>6</v>
+      </c>
+      <c r="G655" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="D656" t="s">
+        <v>31</v>
+      </c>
+      <c r="E656" t="s">
+        <v>22</v>
+      </c>
+      <c r="F656" t="s">
+        <v>6</v>
+      </c>
+      <c r="G656" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="D657" t="s">
+        <v>31</v>
+      </c>
+      <c r="E657" t="s">
+        <v>22</v>
+      </c>
+      <c r="F657" t="s">
+        <v>6</v>
+      </c>
+      <c r="G657" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="D658" t="s">
+        <v>31</v>
+      </c>
+      <c r="E658" t="s">
+        <v>22</v>
+      </c>
+      <c r="F658" t="s">
+        <v>7</v>
+      </c>
+      <c r="G658" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
+      <c r="D659" t="s">
+        <v>31</v>
+      </c>
+      <c r="E659" t="s">
+        <v>22</v>
+      </c>
+      <c r="F659" t="s">
+        <v>7</v>
+      </c>
+      <c r="G659" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
+      <c r="D660" t="s">
+        <v>31</v>
+      </c>
+      <c r="E660" t="s">
+        <v>22</v>
+      </c>
+      <c r="F660" t="s">
+        <v>7</v>
+      </c>
+      <c r="G660" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="D661" t="s">
+        <v>31</v>
+      </c>
+      <c r="E661" t="s">
+        <v>22</v>
+      </c>
+      <c r="F661" t="s">
+        <v>8</v>
+      </c>
+      <c r="G661" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="D662" t="s">
+        <v>31</v>
+      </c>
+      <c r="E662" t="s">
+        <v>22</v>
+      </c>
+      <c r="F662" t="s">
+        <v>8</v>
+      </c>
+      <c r="G662" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="D663" t="s">
+        <v>31</v>
+      </c>
+      <c r="E663" t="s">
+        <v>22</v>
+      </c>
+      <c r="F663" t="s">
+        <v>8</v>
+      </c>
+      <c r="G663" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="D664" t="s">
+        <v>31</v>
+      </c>
+      <c r="E664" t="s">
+        <v>22</v>
+      </c>
+      <c r="F664" t="s">
+        <v>9</v>
+      </c>
+      <c r="G664" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="D665" t="s">
+        <v>31</v>
+      </c>
+      <c r="E665" t="s">
+        <v>22</v>
+      </c>
+      <c r="F665" t="s">
+        <v>9</v>
+      </c>
+      <c r="G665" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="D666" t="s">
+        <v>31</v>
+      </c>
+      <c r="E666" t="s">
+        <v>22</v>
+      </c>
+      <c r="F666" t="s">
+        <v>9</v>
+      </c>
+      <c r="G666" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
+      <c r="A667" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B667">
+        <v>88</v>
+      </c>
+      <c r="C667">
+        <v>75</v>
+      </c>
+      <c r="D667" t="s">
+        <v>31</v>
+      </c>
+      <c r="E667" t="s">
+        <v>22</v>
+      </c>
+      <c r="F667" t="s">
+        <v>10</v>
+      </c>
+      <c r="G667" t="s">
+        <v>3</v>
+      </c>
+      <c r="H667">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B668">
+        <v>86</v>
+      </c>
+      <c r="C668">
+        <v>75</v>
+      </c>
+      <c r="D668" t="s">
+        <v>31</v>
+      </c>
+      <c r="E668" t="s">
+        <v>22</v>
+      </c>
+      <c r="F668" t="s">
+        <v>10</v>
+      </c>
+      <c r="G668" t="s">
+        <v>4</v>
+      </c>
+      <c r="H668">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="A669" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B669">
+        <v>85</v>
+      </c>
+      <c r="C669">
+        <v>75</v>
+      </c>
+      <c r="D669" t="s">
+        <v>31</v>
+      </c>
+      <c r="E669" t="s">
+        <v>22</v>
+      </c>
+      <c r="F669" t="s">
+        <v>10</v>
+      </c>
+      <c r="G669" t="s">
+        <v>5</v>
+      </c>
+      <c r="H669">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
+      <c r="A670" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B670">
+        <v>87</v>
+      </c>
+      <c r="C670">
+        <v>75</v>
+      </c>
+      <c r="D670" t="s">
+        <v>31</v>
+      </c>
+      <c r="E670" t="s">
+        <v>22</v>
+      </c>
+      <c r="F670" t="s">
+        <v>11</v>
+      </c>
+      <c r="G670" t="s">
+        <v>3</v>
+      </c>
+      <c r="H670">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="A671" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B671">
+        <v>85</v>
+      </c>
+      <c r="C671">
+        <v>75</v>
+      </c>
+      <c r="D671" t="s">
+        <v>31</v>
+      </c>
+      <c r="E671" t="s">
+        <v>22</v>
+      </c>
+      <c r="F671" t="s">
+        <v>11</v>
+      </c>
+      <c r="G671" t="s">
+        <v>4</v>
+      </c>
+      <c r="H671">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
+      <c r="A672" s="1">
+        <v>4023</v>
+      </c>
+      <c r="B672">
+        <v>85</v>
+      </c>
+      <c r="C672">
+        <v>75</v>
+      </c>
+      <c r="D672" t="s">
+        <v>31</v>
+      </c>
+      <c r="E672" t="s">
+        <v>22</v>
+      </c>
+      <c r="F672" t="s">
+        <v>11</v>
+      </c>
+      <c r="G672" t="s">
+        <v>5</v>
+      </c>
+      <c r="H672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8">
+      <c r="D673" t="s">
+        <v>31</v>
+      </c>
+      <c r="E673" t="s">
+        <v>23</v>
+      </c>
+      <c r="F673" t="s">
+        <v>2</v>
+      </c>
+      <c r="G673" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8">
+      <c r="A674" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B674">
+        <v>102</v>
+      </c>
+      <c r="C674">
+        <v>75</v>
+      </c>
+      <c r="D674" t="s">
+        <v>31</v>
+      </c>
+      <c r="E674" t="s">
+        <v>23</v>
+      </c>
+      <c r="F674" t="s">
+        <v>2</v>
+      </c>
+      <c r="G674" t="s">
+        <v>4</v>
+      </c>
+      <c r="H674">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8">
+      <c r="A675" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B675">
+        <v>101</v>
+      </c>
+      <c r="C675">
+        <v>75</v>
+      </c>
+      <c r="D675" t="s">
+        <v>31</v>
+      </c>
+      <c r="E675" t="s">
+        <v>23</v>
+      </c>
+      <c r="F675" t="s">
+        <v>2</v>
+      </c>
+      <c r="G675" t="s">
+        <v>5</v>
+      </c>
+      <c r="H675">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8">
+      <c r="D676" t="s">
+        <v>31</v>
+      </c>
+      <c r="E676" t="s">
+        <v>23</v>
+      </c>
+      <c r="F676" t="s">
+        <v>6</v>
+      </c>
+      <c r="G676" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8">
+      <c r="A677" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B677">
+        <v>100</v>
+      </c>
+      <c r="C677">
+        <v>75</v>
+      </c>
+      <c r="D677" t="s">
+        <v>31</v>
+      </c>
+      <c r="E677" t="s">
+        <v>23</v>
+      </c>
+      <c r="F677" t="s">
+        <v>6</v>
+      </c>
+      <c r="G677" t="s">
+        <v>4</v>
+      </c>
+      <c r="H677">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="A678" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B678">
+        <v>101</v>
+      </c>
+      <c r="C678">
+        <v>75</v>
+      </c>
+      <c r="D678" t="s">
+        <v>31</v>
+      </c>
+      <c r="E678" t="s">
+        <v>23</v>
+      </c>
+      <c r="F678" t="s">
+        <v>6</v>
+      </c>
+      <c r="G678" t="s">
+        <v>5</v>
+      </c>
+      <c r="H678">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="D679" t="s">
+        <v>31</v>
+      </c>
+      <c r="E679" t="s">
+        <v>23</v>
+      </c>
+      <c r="F679" t="s">
+        <v>7</v>
+      </c>
+      <c r="G679" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8">
+      <c r="A680" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B680">
+        <v>102</v>
+      </c>
+      <c r="C680">
+        <v>75</v>
+      </c>
+      <c r="D680" t="s">
+        <v>31</v>
+      </c>
+      <c r="E680" t="s">
+        <v>23</v>
+      </c>
+      <c r="F680" t="s">
+        <v>7</v>
+      </c>
+      <c r="G680" t="s">
+        <v>4</v>
+      </c>
+      <c r="H680">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B681">
+        <v>101</v>
+      </c>
+      <c r="C681">
+        <v>75</v>
+      </c>
+      <c r="D681" t="s">
+        <v>31</v>
+      </c>
+      <c r="E681" t="s">
+        <v>23</v>
+      </c>
+      <c r="F681" t="s">
+        <v>7</v>
+      </c>
+      <c r="G681" t="s">
+        <v>5</v>
+      </c>
+      <c r="H681">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="D682" t="s">
+        <v>31</v>
+      </c>
+      <c r="E682" t="s">
+        <v>23</v>
+      </c>
+      <c r="F682" t="s">
+        <v>8</v>
+      </c>
+      <c r="G682" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B683">
+        <v>105</v>
+      </c>
+      <c r="C683">
+        <v>75</v>
+      </c>
+      <c r="D683" t="s">
+        <v>31</v>
+      </c>
+      <c r="E683" t="s">
+        <v>23</v>
+      </c>
+      <c r="F683" t="s">
+        <v>8</v>
+      </c>
+      <c r="G683" t="s">
+        <v>4</v>
+      </c>
+      <c r="H683">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B684">
+        <v>95</v>
+      </c>
+      <c r="C684">
+        <v>75</v>
+      </c>
+      <c r="D684" t="s">
+        <v>31</v>
+      </c>
+      <c r="E684" t="s">
+        <v>23</v>
+      </c>
+      <c r="F684" t="s">
+        <v>8</v>
+      </c>
+      <c r="G684" t="s">
+        <v>5</v>
+      </c>
+      <c r="H684">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="D685" t="s">
+        <v>31</v>
+      </c>
+      <c r="E685" t="s">
+        <v>23</v>
+      </c>
+      <c r="F685" t="s">
+        <v>9</v>
+      </c>
+      <c r="G685" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
+      <c r="D686" t="s">
+        <v>31</v>
+      </c>
+      <c r="E686" t="s">
+        <v>23</v>
+      </c>
+      <c r="F686" t="s">
+        <v>9</v>
+      </c>
+      <c r="G686" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
+      <c r="A687" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B687">
+        <v>100</v>
+      </c>
+      <c r="C687">
+        <v>75</v>
+      </c>
+      <c r="D687" t="s">
+        <v>31</v>
+      </c>
+      <c r="E687" t="s">
+        <v>23</v>
+      </c>
+      <c r="F687" t="s">
+        <v>9</v>
+      </c>
+      <c r="G687" t="s">
+        <v>5</v>
+      </c>
+      <c r="H687">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="D688" t="s">
+        <v>31</v>
+      </c>
+      <c r="E688" t="s">
+        <v>23</v>
+      </c>
+      <c r="F688" t="s">
+        <v>10</v>
+      </c>
+      <c r="G688" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8">
+      <c r="D689" t="s">
+        <v>31</v>
+      </c>
+      <c r="E689" t="s">
+        <v>23</v>
+      </c>
+      <c r="F689" t="s">
+        <v>10</v>
+      </c>
+      <c r="G689" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8">
+      <c r="A690" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B690">
+        <v>102</v>
+      </c>
+      <c r="C690">
+        <v>75</v>
+      </c>
+      <c r="D690" t="s">
+        <v>31</v>
+      </c>
+      <c r="E690" t="s">
+        <v>23</v>
+      </c>
+      <c r="F690" t="s">
+        <v>10</v>
+      </c>
+      <c r="G690" t="s">
+        <v>5</v>
+      </c>
+      <c r="H690">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8">
+      <c r="D691" t="s">
+        <v>31</v>
+      </c>
+      <c r="E691" t="s">
+        <v>23</v>
+      </c>
+      <c r="F691" t="s">
+        <v>11</v>
+      </c>
+      <c r="G691" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8">
+      <c r="D692" t="s">
+        <v>31</v>
+      </c>
+      <c r="E692" t="s">
+        <v>23</v>
+      </c>
+      <c r="F692" t="s">
+        <v>11</v>
+      </c>
+      <c r="G692" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8">
+      <c r="A693" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B693">
+        <v>102</v>
+      </c>
+      <c r="C693">
+        <v>75</v>
+      </c>
+      <c r="D693" t="s">
+        <v>31</v>
+      </c>
+      <c r="E693" t="s">
+        <v>23</v>
+      </c>
+      <c r="F693" t="s">
+        <v>11</v>
+      </c>
+      <c r="G693" t="s">
+        <v>5</v>
+      </c>
+      <c r="H693">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8">
+      <c r="A694" s="1">
+        <v>4020</v>
+      </c>
+      <c r="B694">
+        <v>70</v>
+      </c>
+      <c r="C694">
+        <v>41</v>
+      </c>
+      <c r="D694" t="s">
+        <v>31</v>
+      </c>
+      <c r="E694" t="s">
+        <v>24</v>
+      </c>
+      <c r="F694" t="s">
+        <v>2</v>
+      </c>
+      <c r="G694" t="s">
+        <v>3</v>
+      </c>
+      <c r="H694">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8">
+      <c r="A695" s="1">
+        <v>4013</v>
+      </c>
+      <c r="B695">
+        <v>65</v>
+      </c>
+      <c r="C695">
+        <v>29</v>
+      </c>
+      <c r="D695" t="s">
+        <v>31</v>
+      </c>
+      <c r="E695" t="s">
+        <v>24</v>
+      </c>
+      <c r="F695" t="s">
+        <v>2</v>
+      </c>
+      <c r="G695" t="s">
+        <v>4</v>
+      </c>
+      <c r="H695">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8">
+      <c r="A696" s="1">
+        <v>4022</v>
+      </c>
+      <c r="B696">
+        <v>59</v>
+      </c>
+      <c r="C696">
+        <v>14</v>
+      </c>
+      <c r="D696" t="s">
+        <v>31</v>
+      </c>
+      <c r="E696" t="s">
+        <v>24</v>
+      </c>
+      <c r="F696" t="s">
+        <v>2</v>
+      </c>
+      <c r="G696" t="s">
+        <v>5</v>
+      </c>
+      <c r="H696">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8">
+      <c r="D697" t="s">
+        <v>31</v>
+      </c>
+      <c r="E697" t="s">
+        <v>24</v>
+      </c>
+      <c r="F697" t="s">
+        <v>6</v>
+      </c>
+      <c r="G697" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8">
+      <c r="D698" t="s">
+        <v>31</v>
+      </c>
+      <c r="E698" t="s">
+        <v>24</v>
+      </c>
+      <c r="F698" t="s">
+        <v>6</v>
+      </c>
+      <c r="G698" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8">
+      <c r="A699" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B699">
+        <v>61</v>
+      </c>
+      <c r="C699">
+        <v>48</v>
+      </c>
+      <c r="D699" t="s">
+        <v>31</v>
+      </c>
+      <c r="E699" t="s">
+        <v>24</v>
+      </c>
+      <c r="F699" t="s">
+        <v>6</v>
+      </c>
+      <c r="G699" t="s">
+        <v>5</v>
+      </c>
+      <c r="H699">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8">
+      <c r="D700" t="s">
+        <v>31</v>
+      </c>
+      <c r="E700" t="s">
+        <v>24</v>
+      </c>
+      <c r="F700" t="s">
+        <v>7</v>
+      </c>
+      <c r="G700" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8">
+      <c r="D701" t="s">
+        <v>31</v>
+      </c>
+      <c r="E701" t="s">
+        <v>24</v>
+      </c>
+      <c r="F701" t="s">
+        <v>7</v>
+      </c>
+      <c r="G701" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8">
+      <c r="A702" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B702">
+        <v>64</v>
+      </c>
+      <c r="C702">
+        <v>45</v>
+      </c>
+      <c r="D702" t="s">
+        <v>31</v>
+      </c>
+      <c r="E702" t="s">
+        <v>24</v>
+      </c>
+      <c r="F702" t="s">
+        <v>7</v>
+      </c>
+      <c r="G702" t="s">
+        <v>5</v>
+      </c>
+      <c r="H702">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8">
+      <c r="D703" t="s">
+        <v>31</v>
+      </c>
+      <c r="E703" t="s">
+        <v>24</v>
+      </c>
+      <c r="F703" t="s">
+        <v>8</v>
+      </c>
+      <c r="G703" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8">
+      <c r="D704" t="s">
+        <v>31</v>
+      </c>
+      <c r="E704" t="s">
+        <v>24</v>
+      </c>
+      <c r="F704" t="s">
+        <v>8</v>
+      </c>
+      <c r="G704" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8">
+      <c r="A705" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B705">
+        <v>63</v>
+      </c>
+      <c r="C705">
+        <v>46</v>
+      </c>
+      <c r="D705" t="s">
+        <v>31</v>
+      </c>
+      <c r="E705" t="s">
+        <v>24</v>
+      </c>
+      <c r="F705" t="s">
+        <v>8</v>
+      </c>
+      <c r="G705" t="s">
+        <v>5</v>
+      </c>
+      <c r="H705">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8">
+      <c r="D706" t="s">
+        <v>31</v>
+      </c>
+      <c r="E706" t="s">
+        <v>24</v>
+      </c>
+      <c r="F706" t="s">
+        <v>9</v>
+      </c>
+      <c r="G706" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8">
+      <c r="D707" t="s">
+        <v>31</v>
+      </c>
+      <c r="E707" t="s">
+        <v>24</v>
+      </c>
+      <c r="F707" t="s">
+        <v>9</v>
+      </c>
+      <c r="G707" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8">
+      <c r="D708" t="s">
+        <v>31</v>
+      </c>
+      <c r="E708" t="s">
+        <v>24</v>
+      </c>
+      <c r="F708" t="s">
+        <v>9</v>
+      </c>
+      <c r="G708" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8">
+      <c r="D709" t="s">
+        <v>31</v>
+      </c>
+      <c r="E709" t="s">
+        <v>24</v>
+      </c>
+      <c r="F709" t="s">
+        <v>10</v>
+      </c>
+      <c r="G709" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8">
+      <c r="D710" t="s">
+        <v>31</v>
+      </c>
+      <c r="E710" t="s">
+        <v>24</v>
+      </c>
+      <c r="F710" t="s">
+        <v>10</v>
+      </c>
+      <c r="G710" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8">
+      <c r="A711" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B711">
+        <v>63</v>
+      </c>
+      <c r="C711">
+        <v>56</v>
+      </c>
+      <c r="D711" t="s">
+        <v>31</v>
+      </c>
+      <c r="E711" t="s">
+        <v>24</v>
+      </c>
+      <c r="F711" t="s">
+        <v>10</v>
+      </c>
+      <c r="G711" t="s">
+        <v>5</v>
+      </c>
+      <c r="H711">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8">
+      <c r="D712" t="s">
+        <v>31</v>
+      </c>
+      <c r="E712" t="s">
+        <v>24</v>
+      </c>
+      <c r="F712" t="s">
+        <v>11</v>
+      </c>
+      <c r="G712" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8">
+      <c r="D713" t="s">
+        <v>31</v>
+      </c>
+      <c r="E713" t="s">
+        <v>24</v>
+      </c>
+      <c r="F713" t="s">
+        <v>11</v>
+      </c>
+      <c r="G713" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8">
+      <c r="A714" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B714">
+        <v>64</v>
+      </c>
+      <c r="C714">
+        <v>56</v>
+      </c>
+      <c r="D714" t="s">
+        <v>31</v>
+      </c>
+      <c r="E714" t="s">
+        <v>24</v>
+      </c>
+      <c r="F714" t="s">
+        <v>11</v>
+      </c>
+      <c r="G714" t="s">
+        <v>5</v>
+      </c>
+      <c r="H714">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8">
+      <c r="A715" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B715">
+        <v>75</v>
+      </c>
+      <c r="C715">
+        <v>56</v>
+      </c>
+      <c r="D715" t="s">
+        <v>31</v>
+      </c>
+      <c r="E715" t="s">
+        <v>25</v>
+      </c>
+      <c r="F715" t="s">
+        <v>2</v>
+      </c>
+      <c r="G715" t="s">
+        <v>3</v>
+      </c>
+      <c r="H715">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8">
+      <c r="D716" t="s">
+        <v>31</v>
+      </c>
+      <c r="E716" t="s">
+        <v>25</v>
+      </c>
+      <c r="F716" t="s">
+        <v>2</v>
+      </c>
+      <c r="G716" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8">
+      <c r="D717" t="s">
+        <v>31</v>
+      </c>
+      <c r="E717" t="s">
+        <v>25</v>
+      </c>
+      <c r="F717" t="s">
+        <v>2</v>
+      </c>
+      <c r="G717" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8">
+      <c r="A718" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B718">
+        <v>70</v>
+      </c>
+      <c r="C718">
+        <v>56</v>
+      </c>
+      <c r="D718" t="s">
+        <v>31</v>
+      </c>
+      <c r="E718" t="s">
+        <v>25</v>
+      </c>
+      <c r="F718" t="s">
+        <v>6</v>
+      </c>
+      <c r="G718" t="s">
+        <v>3</v>
+      </c>
+      <c r="H718">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8">
+      <c r="D719" t="s">
+        <v>31</v>
+      </c>
+      <c r="E719" t="s">
+        <v>25</v>
+      </c>
+      <c r="F719" t="s">
+        <v>6</v>
+      </c>
+      <c r="G719" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8">
+      <c r="D720" t="s">
+        <v>31</v>
+      </c>
+      <c r="E720" t="s">
+        <v>25</v>
+      </c>
+      <c r="F720" t="s">
+        <v>6</v>
+      </c>
+      <c r="G720" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8">
+      <c r="A721" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B721">
+        <v>70</v>
+      </c>
+      <c r="C721">
+        <v>56</v>
+      </c>
+      <c r="D721" t="s">
+        <v>31</v>
+      </c>
+      <c r="E721" t="s">
+        <v>25</v>
+      </c>
+      <c r="F721" t="s">
+        <v>7</v>
+      </c>
+      <c r="G721" t="s">
+        <v>3</v>
+      </c>
+      <c r="H721">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8">
+      <c r="D722" t="s">
+        <v>31</v>
+      </c>
+      <c r="E722" t="s">
+        <v>25</v>
+      </c>
+      <c r="F722" t="s">
+        <v>7</v>
+      </c>
+      <c r="G722" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8">
+      <c r="D723" t="s">
+        <v>31</v>
+      </c>
+      <c r="E723" t="s">
+        <v>25</v>
+      </c>
+      <c r="F723" t="s">
+        <v>7</v>
+      </c>
+      <c r="G723" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8">
+      <c r="A724" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B724">
+        <v>69</v>
+      </c>
+      <c r="C724">
+        <v>53</v>
+      </c>
+      <c r="D724" t="s">
+        <v>31</v>
+      </c>
+      <c r="E724" t="s">
+        <v>25</v>
+      </c>
+      <c r="F724" t="s">
+        <v>8</v>
+      </c>
+      <c r="G724" t="s">
+        <v>3</v>
+      </c>
+      <c r="H724">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8">
+      <c r="D725" t="s">
+        <v>31</v>
+      </c>
+      <c r="E725" t="s">
+        <v>25</v>
+      </c>
+      <c r="F725" t="s">
+        <v>8</v>
+      </c>
+      <c r="G725" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8">
+      <c r="D726" t="s">
+        <v>31</v>
+      </c>
+      <c r="E726" t="s">
+        <v>25</v>
+      </c>
+      <c r="F726" t="s">
+        <v>8</v>
+      </c>
+      <c r="G726" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8">
+      <c r="A727" s="1">
+        <v>3905</v>
+      </c>
+      <c r="B727">
+        <v>69</v>
+      </c>
+      <c r="C727">
+        <v>42</v>
+      </c>
+      <c r="D727" t="s">
+        <v>31</v>
+      </c>
+      <c r="E727" t="s">
+        <v>25</v>
+      </c>
+      <c r="F727" t="s">
+        <v>9</v>
+      </c>
+      <c r="G727" t="s">
+        <v>3</v>
+      </c>
+      <c r="H727">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8">
+      <c r="D728" t="s">
+        <v>31</v>
+      </c>
+      <c r="E728" t="s">
+        <v>25</v>
+      </c>
+      <c r="F728" t="s">
+        <v>9</v>
+      </c>
+      <c r="G728" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8">
+      <c r="D729" t="s">
+        <v>31</v>
+      </c>
+      <c r="E729" t="s">
+        <v>25</v>
+      </c>
+      <c r="F729" t="s">
+        <v>9</v>
+      </c>
+      <c r="G729" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8">
+      <c r="A730" s="1">
+        <v>3905</v>
+      </c>
+      <c r="B730">
+        <v>61</v>
+      </c>
+      <c r="C730">
+        <v>60</v>
+      </c>
+      <c r="D730" t="s">
+        <v>31</v>
+      </c>
+      <c r="E730" t="s">
+        <v>25</v>
+      </c>
+      <c r="F730" t="s">
+        <v>10</v>
+      </c>
+      <c r="G730" t="s">
+        <v>3</v>
+      </c>
+      <c r="H730">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8">
+      <c r="D731" t="s">
+        <v>31</v>
+      </c>
+      <c r="E731" t="s">
+        <v>25</v>
+      </c>
+      <c r="F731" t="s">
+        <v>10</v>
+      </c>
+      <c r="G731" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8">
+      <c r="D732" t="s">
+        <v>31</v>
+      </c>
+      <c r="E732" t="s">
+        <v>25</v>
+      </c>
+      <c r="F732" t="s">
+        <v>10</v>
+      </c>
+      <c r="G732" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8">
+      <c r="A733" s="1">
+        <v>3905</v>
+      </c>
+      <c r="B733">
+        <v>69</v>
+      </c>
+      <c r="C733">
+        <v>60</v>
+      </c>
+      <c r="D733" t="s">
+        <v>31</v>
+      </c>
+      <c r="E733" t="s">
+        <v>25</v>
+      </c>
+      <c r="F733" t="s">
+        <v>11</v>
+      </c>
+      <c r="G733" t="s">
+        <v>3</v>
+      </c>
+      <c r="H733">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8">
+      <c r="D734" t="s">
+        <v>31</v>
+      </c>
+      <c r="E734" t="s">
+        <v>25</v>
+      </c>
+      <c r="F734" t="s">
+        <v>11</v>
+      </c>
+      <c r="G734" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8">
+      <c r="D735" t="s">
+        <v>31</v>
+      </c>
+      <c r="E735" t="s">
+        <v>25</v>
+      </c>
+      <c r="F735" t="s">
+        <v>11</v>
+      </c>
+      <c r="G735" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8">
+      <c r="A736" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B736">
+        <v>64</v>
+      </c>
+      <c r="C736">
+        <v>16</v>
+      </c>
+      <c r="D736" t="s">
+        <v>31</v>
+      </c>
+      <c r="E736" t="s">
+        <v>26</v>
+      </c>
+      <c r="F736" t="s">
+        <v>2</v>
+      </c>
+      <c r="G736" t="s">
+        <v>3</v>
+      </c>
+      <c r="H736">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8">
+      <c r="A737" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B737">
+        <v>70</v>
+      </c>
+      <c r="C737">
+        <v>55</v>
+      </c>
+      <c r="D737" t="s">
+        <v>31</v>
+      </c>
+      <c r="E737" t="s">
+        <v>26</v>
+      </c>
+      <c r="F737" t="s">
+        <v>2</v>
+      </c>
+      <c r="G737" t="s">
+        <v>4</v>
+      </c>
+      <c r="H737">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8">
+      <c r="A738" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B738">
+        <v>64</v>
+      </c>
+      <c r="C738">
+        <v>60</v>
+      </c>
+      <c r="D738" t="s">
+        <v>31</v>
+      </c>
+      <c r="E738" t="s">
+        <v>26</v>
+      </c>
+      <c r="F738" t="s">
+        <v>2</v>
+      </c>
+      <c r="G738" t="s">
+        <v>5</v>
+      </c>
+      <c r="H738">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8">
+      <c r="D739" t="s">
+        <v>31</v>
+      </c>
+      <c r="E739" t="s">
+        <v>26</v>
+      </c>
+      <c r="F739" t="s">
+        <v>6</v>
+      </c>
+      <c r="G739" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8">
+      <c r="A740" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B740">
+        <v>68</v>
+      </c>
+      <c r="C740">
+        <v>60</v>
+      </c>
+      <c r="D740" t="s">
+        <v>31</v>
+      </c>
+      <c r="E740" t="s">
+        <v>26</v>
+      </c>
+      <c r="F740" t="s">
+        <v>6</v>
+      </c>
+      <c r="G740" t="s">
+        <v>4</v>
+      </c>
+      <c r="H740">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8">
+      <c r="A741" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B741">
+        <v>64</v>
+      </c>
+      <c r="C741">
+        <v>60</v>
+      </c>
+      <c r="D741" t="s">
+        <v>31</v>
+      </c>
+      <c r="E741" t="s">
+        <v>26</v>
+      </c>
+      <c r="F741" t="s">
+        <v>6</v>
+      </c>
+      <c r="G741" t="s">
+        <v>5</v>
+      </c>
+      <c r="H741">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8">
+      <c r="D742" t="s">
+        <v>31</v>
+      </c>
+      <c r="E742" t="s">
+        <v>26</v>
+      </c>
+      <c r="F742" t="s">
+        <v>7</v>
+      </c>
+      <c r="G742" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8">
+      <c r="A743" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B743">
+        <v>68</v>
+      </c>
+      <c r="C743">
+        <v>60</v>
+      </c>
+      <c r="D743" t="s">
+        <v>31</v>
+      </c>
+      <c r="E743" t="s">
+        <v>26</v>
+      </c>
+      <c r="F743" t="s">
+        <v>7</v>
+      </c>
+      <c r="G743" t="s">
+        <v>4</v>
+      </c>
+      <c r="H743">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8">
+      <c r="A744" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B744">
+        <v>64</v>
+      </c>
+      <c r="C744">
+        <v>60</v>
+      </c>
+      <c r="D744" t="s">
+        <v>31</v>
+      </c>
+      <c r="E744" t="s">
+        <v>26</v>
+      </c>
+      <c r="F744" t="s">
+        <v>7</v>
+      </c>
+      <c r="G744" t="s">
+        <v>5</v>
+      </c>
+      <c r="H744">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8">
+      <c r="A745" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B745">
+        <v>68</v>
+      </c>
+      <c r="C745">
+        <v>60</v>
+      </c>
+      <c r="D745" t="s">
+        <v>31</v>
+      </c>
+      <c r="E745" t="s">
+        <v>26</v>
+      </c>
+      <c r="F745" t="s">
+        <v>8</v>
+      </c>
+      <c r="G745" t="s">
+        <v>3</v>
+      </c>
+      <c r="H745">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8">
+      <c r="A746" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B746">
+        <v>68</v>
+      </c>
+      <c r="C746">
+        <v>60</v>
+      </c>
+      <c r="D746" t="s">
+        <v>31</v>
+      </c>
+      <c r="E746" t="s">
+        <v>26</v>
+      </c>
+      <c r="F746" t="s">
+        <v>8</v>
+      </c>
+      <c r="G746" t="s">
+        <v>4</v>
+      </c>
+      <c r="H746">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8">
+      <c r="A747" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B747">
+        <v>64</v>
+      </c>
+      <c r="C747">
+        <v>60</v>
+      </c>
+      <c r="D747" t="s">
+        <v>31</v>
+      </c>
+      <c r="E747" t="s">
+        <v>26</v>
+      </c>
+      <c r="F747" t="s">
+        <v>8</v>
+      </c>
+      <c r="G747" t="s">
+        <v>5</v>
+      </c>
+      <c r="H747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8">
+      <c r="A748" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B748">
+        <v>69</v>
+      </c>
+      <c r="C748">
+        <v>60</v>
+      </c>
+      <c r="D748" t="s">
+        <v>31</v>
+      </c>
+      <c r="E748" t="s">
+        <v>26</v>
+      </c>
+      <c r="F748" t="s">
+        <v>9</v>
+      </c>
+      <c r="G748" t="s">
+        <v>3</v>
+      </c>
+      <c r="H748">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8">
+      <c r="A749" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B749">
+        <v>68</v>
+      </c>
+      <c r="C749">
+        <v>60</v>
+      </c>
+      <c r="D749" t="s">
+        <v>31</v>
+      </c>
+      <c r="E749" t="s">
+        <v>26</v>
+      </c>
+      <c r="F749" t="s">
+        <v>9</v>
+      </c>
+      <c r="G749" t="s">
+        <v>4</v>
+      </c>
+      <c r="H749">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8">
+      <c r="A750" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B750">
+        <v>62</v>
+      </c>
+      <c r="C750">
+        <v>60</v>
+      </c>
+      <c r="D750" t="s">
+        <v>31</v>
+      </c>
+      <c r="E750" t="s">
+        <v>26</v>
+      </c>
+      <c r="F750" t="s">
+        <v>9</v>
+      </c>
+      <c r="G750" t="s">
+        <v>5</v>
+      </c>
+      <c r="H750">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8">
+      <c r="A751" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B751">
+        <v>69</v>
+      </c>
+      <c r="C751">
+        <v>60</v>
+      </c>
+      <c r="D751" t="s">
+        <v>31</v>
+      </c>
+      <c r="E751" t="s">
+        <v>26</v>
+      </c>
+      <c r="F751" t="s">
+        <v>10</v>
+      </c>
+      <c r="G751" t="s">
+        <v>3</v>
+      </c>
+      <c r="H751">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8">
+      <c r="A752" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B752">
+        <v>68</v>
+      </c>
+      <c r="C752">
+        <v>60</v>
+      </c>
+      <c r="D752" t="s">
+        <v>31</v>
+      </c>
+      <c r="E752" t="s">
+        <v>26</v>
+      </c>
+      <c r="F752" t="s">
+        <v>10</v>
+      </c>
+      <c r="G752" t="s">
+        <v>4</v>
+      </c>
+      <c r="H752">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8">
+      <c r="A753" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B753">
+        <v>64</v>
+      </c>
+      <c r="C753">
+        <v>60</v>
+      </c>
+      <c r="D753" t="s">
+        <v>31</v>
+      </c>
+      <c r="E753" t="s">
+        <v>26</v>
+      </c>
+      <c r="F753" t="s">
+        <v>10</v>
+      </c>
+      <c r="G753" t="s">
+        <v>5</v>
+      </c>
+      <c r="H753">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8">
+      <c r="A754" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B754">
+        <v>70</v>
+      </c>
+      <c r="C754">
+        <v>60</v>
+      </c>
+      <c r="D754" t="s">
+        <v>31</v>
+      </c>
+      <c r="E754" t="s">
+        <v>26</v>
+      </c>
+      <c r="F754" t="s">
+        <v>11</v>
+      </c>
+      <c r="G754" t="s">
+        <v>3</v>
+      </c>
+      <c r="H754">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8">
+      <c r="A755" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B755">
+        <v>68</v>
+      </c>
+      <c r="C755">
+        <v>60</v>
+      </c>
+      <c r="D755" t="s">
+        <v>31</v>
+      </c>
+      <c r="E755" t="s">
+        <v>26</v>
+      </c>
+      <c r="F755" t="s">
+        <v>11</v>
+      </c>
+      <c r="G755" t="s">
+        <v>4</v>
+      </c>
+      <c r="H755">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8">
+      <c r="A756" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B756">
+        <v>64</v>
+      </c>
+      <c r="C756">
+        <v>60</v>
+      </c>
+      <c r="D756" t="s">
+        <v>31</v>
+      </c>
+      <c r="E756" t="s">
+        <v>26</v>
+      </c>
+      <c r="F756" t="s">
+        <v>11</v>
+      </c>
+      <c r="G756" t="s">
+        <v>5</v>
+      </c>
+      <c r="H756">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
+      <c r="A757" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B757">
+        <v>75</v>
+      </c>
+      <c r="C757">
+        <v>9</v>
+      </c>
+      <c r="D757" t="s">
+        <v>31</v>
+      </c>
+      <c r="E757" t="s">
+        <v>27</v>
+      </c>
+      <c r="F757" t="s">
+        <v>2</v>
+      </c>
+      <c r="G757" t="s">
+        <v>3</v>
+      </c>
+      <c r="H757">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8">
+      <c r="D758" t="s">
+        <v>31</v>
+      </c>
+      <c r="E758" t="s">
+        <v>27</v>
+      </c>
+      <c r="F758" t="s">
+        <v>2</v>
+      </c>
+      <c r="G758" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8">
+      <c r="D759" t="s">
+        <v>31</v>
+      </c>
+      <c r="E759" t="s">
+        <v>27</v>
+      </c>
+      <c r="F759" t="s">
+        <v>2</v>
+      </c>
+      <c r="G759" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8">
+      <c r="A760" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B760">
+        <v>75</v>
+      </c>
+      <c r="C760">
+        <v>60</v>
+      </c>
+      <c r="D760" t="s">
+        <v>31</v>
+      </c>
+      <c r="E760" t="s">
+        <v>27</v>
+      </c>
+      <c r="F760" t="s">
+        <v>6</v>
+      </c>
+      <c r="G760" t="s">
+        <v>3</v>
+      </c>
+      <c r="H760">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8">
+      <c r="D761" t="s">
+        <v>31</v>
+      </c>
+      <c r="E761" t="s">
+        <v>27</v>
+      </c>
+      <c r="F761" t="s">
+        <v>6</v>
+      </c>
+      <c r="G761" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8">
+      <c r="A762" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B762">
+        <v>70</v>
+      </c>
+      <c r="C762">
+        <v>60</v>
+      </c>
+      <c r="D762" t="s">
+        <v>31</v>
+      </c>
+      <c r="E762" t="s">
+        <v>27</v>
+      </c>
+      <c r="F762" t="s">
+        <v>6</v>
+      </c>
+      <c r="G762" t="s">
+        <v>5</v>
+      </c>
+      <c r="H762">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8">
+      <c r="A763" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B763">
+        <v>75</v>
+      </c>
+      <c r="C763">
+        <v>60</v>
+      </c>
+      <c r="D763" t="s">
+        <v>31</v>
+      </c>
+      <c r="E763" t="s">
+        <v>27</v>
+      </c>
+      <c r="F763" t="s">
+        <v>7</v>
+      </c>
+      <c r="G763" t="s">
+        <v>3</v>
+      </c>
+      <c r="H763">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8">
+      <c r="A764" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B764">
+        <v>70</v>
+      </c>
+      <c r="C764">
+        <v>60</v>
+      </c>
+      <c r="D764" t="s">
+        <v>31</v>
+      </c>
+      <c r="E764" t="s">
+        <v>27</v>
+      </c>
+      <c r="F764" t="s">
+        <v>7</v>
+      </c>
+      <c r="G764" t="s">
+        <v>4</v>
+      </c>
+      <c r="H764">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8">
+      <c r="A765" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B765">
+        <v>70</v>
+      </c>
+      <c r="C765">
+        <v>60</v>
+      </c>
+      <c r="D765" t="s">
+        <v>31</v>
+      </c>
+      <c r="E765" t="s">
+        <v>27</v>
+      </c>
+      <c r="F765" t="s">
+        <v>7</v>
+      </c>
+      <c r="G765" t="s">
+        <v>5</v>
+      </c>
+      <c r="H765">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8">
+      <c r="A766" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B766">
+        <v>75</v>
+      </c>
+      <c r="C766">
+        <v>60</v>
+      </c>
+      <c r="D766" t="s">
+        <v>31</v>
+      </c>
+      <c r="E766" t="s">
+        <v>27</v>
+      </c>
+      <c r="F766" t="s">
+        <v>8</v>
+      </c>
+      <c r="G766" t="s">
+        <v>3</v>
+      </c>
+      <c r="H766">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="A767" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B767">
+        <v>71</v>
+      </c>
+      <c r="C767">
+        <v>60</v>
+      </c>
+      <c r="D767" t="s">
+        <v>31</v>
+      </c>
+      <c r="E767" t="s">
+        <v>27</v>
+      </c>
+      <c r="F767" t="s">
+        <v>8</v>
+      </c>
+      <c r="G767" t="s">
+        <v>4</v>
+      </c>
+      <c r="H767">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="A768" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B768">
+        <v>70</v>
+      </c>
+      <c r="C768">
+        <v>60</v>
+      </c>
+      <c r="D768" t="s">
+        <v>31</v>
+      </c>
+      <c r="E768" t="s">
+        <v>27</v>
+      </c>
+      <c r="F768" t="s">
+        <v>8</v>
+      </c>
+      <c r="G768" t="s">
+        <v>5</v>
+      </c>
+      <c r="H768">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="D769" t="s">
+        <v>31</v>
+      </c>
+      <c r="E769" t="s">
+        <v>27</v>
+      </c>
+      <c r="F769" t="s">
+        <v>9</v>
+      </c>
+      <c r="G769" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8">
+      <c r="A770" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B770">
+        <v>71</v>
+      </c>
+      <c r="C770">
+        <v>60</v>
+      </c>
+      <c r="D770" t="s">
+        <v>31</v>
+      </c>
+      <c r="E770" t="s">
+        <v>27</v>
+      </c>
+      <c r="F770" t="s">
+        <v>9</v>
+      </c>
+      <c r="G770" t="s">
+        <v>4</v>
+      </c>
+      <c r="H770">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8">
+      <c r="A771" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B771">
+        <v>71</v>
+      </c>
+      <c r="C771">
+        <v>60</v>
+      </c>
+      <c r="D771" t="s">
+        <v>31</v>
+      </c>
+      <c r="E771" t="s">
+        <v>27</v>
+      </c>
+      <c r="F771" t="s">
+        <v>9</v>
+      </c>
+      <c r="G771" t="s">
+        <v>5</v>
+      </c>
+      <c r="H771">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="D772" t="s">
+        <v>31</v>
+      </c>
+      <c r="E772" t="s">
+        <v>27</v>
+      </c>
+      <c r="F772" t="s">
+        <v>10</v>
+      </c>
+      <c r="G772" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="D773" t="s">
+        <v>31</v>
+      </c>
+      <c r="E773" t="s">
+        <v>27</v>
+      </c>
+      <c r="F773" t="s">
+        <v>10</v>
+      </c>
+      <c r="G773" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B774">
+        <v>71</v>
+      </c>
+      <c r="C774">
+        <v>60</v>
+      </c>
+      <c r="D774" t="s">
+        <v>31</v>
+      </c>
+      <c r="E774" t="s">
+        <v>27</v>
+      </c>
+      <c r="F774" t="s">
+        <v>10</v>
+      </c>
+      <c r="G774" t="s">
+        <v>5</v>
+      </c>
+      <c r="H774">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="D775" t="s">
+        <v>31</v>
+      </c>
+      <c r="E775" t="s">
+        <v>27</v>
+      </c>
+      <c r="F775" t="s">
+        <v>11</v>
+      </c>
+      <c r="G775" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8">
+      <c r="A776" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B776">
+        <v>71</v>
+      </c>
+      <c r="C776">
+        <v>60</v>
+      </c>
+      <c r="D776" t="s">
+        <v>31</v>
+      </c>
+      <c r="E776" t="s">
+        <v>27</v>
+      </c>
+      <c r="F776" t="s">
+        <v>11</v>
+      </c>
+      <c r="G776" t="s">
+        <v>4</v>
+      </c>
+      <c r="H776">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8">
+      <c r="A777" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B777">
+        <v>71</v>
+      </c>
+      <c r="C777">
+        <v>60</v>
+      </c>
+      <c r="D777" t="s">
+        <v>31</v>
+      </c>
+      <c r="E777" t="s">
+        <v>27</v>
+      </c>
+      <c r="F777" t="s">
+        <v>11</v>
+      </c>
+      <c r="G777" t="s">
+        <v>5</v>
+      </c>
+      <c r="H777">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B778">
+        <v>81</v>
+      </c>
+      <c r="C778">
+        <v>74</v>
+      </c>
+      <c r="D778" t="s">
+        <v>31</v>
+      </c>
+      <c r="E778" t="s">
+        <v>28</v>
+      </c>
+      <c r="F778" t="s">
+        <v>2</v>
+      </c>
+      <c r="G778" t="s">
+        <v>3</v>
+      </c>
+      <c r="H778">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8">
+      <c r="A779" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B779">
+        <v>79</v>
+      </c>
+      <c r="C779">
+        <v>75</v>
+      </c>
+      <c r="D779" t="s">
+        <v>31</v>
+      </c>
+      <c r="E779" t="s">
+        <v>28</v>
+      </c>
+      <c r="F779" t="s">
+        <v>2</v>
+      </c>
+      <c r="G779" t="s">
+        <v>4</v>
+      </c>
+      <c r="H779">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="A780" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B780">
+        <v>77</v>
+      </c>
+      <c r="C780">
+        <v>75</v>
+      </c>
+      <c r="D780" t="s">
+        <v>31</v>
+      </c>
+      <c r="E780" t="s">
+        <v>28</v>
+      </c>
+      <c r="F780" t="s">
+        <v>2</v>
+      </c>
+      <c r="G780" t="s">
+        <v>5</v>
+      </c>
+      <c r="H780">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8">
+      <c r="A781" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B781">
+        <v>84</v>
+      </c>
+      <c r="C781">
+        <v>75</v>
+      </c>
+      <c r="D781" t="s">
+        <v>31</v>
+      </c>
+      <c r="E781" t="s">
+        <v>28</v>
+      </c>
+      <c r="F781" t="s">
+        <v>6</v>
+      </c>
+      <c r="G781" t="s">
+        <v>3</v>
+      </c>
+      <c r="H781">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B782">
+        <v>80</v>
+      </c>
+      <c r="C782">
+        <v>75</v>
+      </c>
+      <c r="D782" t="s">
+        <v>31</v>
+      </c>
+      <c r="E782" t="s">
+        <v>28</v>
+      </c>
+      <c r="F782" t="s">
+        <v>6</v>
+      </c>
+      <c r="G782" t="s">
+        <v>4</v>
+      </c>
+      <c r="H782">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8">
+      <c r="A783" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B783">
+        <v>78</v>
+      </c>
+      <c r="C783">
+        <v>75</v>
+      </c>
+      <c r="D783" t="s">
+        <v>31</v>
+      </c>
+      <c r="E783" t="s">
+        <v>28</v>
+      </c>
+      <c r="F783" t="s">
+        <v>6</v>
+      </c>
+      <c r="G783" t="s">
+        <v>5</v>
+      </c>
+      <c r="H783">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8">
+      <c r="A784" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B784">
+        <v>84</v>
+      </c>
+      <c r="C784">
+        <v>75</v>
+      </c>
+      <c r="D784" t="s">
+        <v>31</v>
+      </c>
+      <c r="E784" t="s">
+        <v>28</v>
+      </c>
+      <c r="F784" t="s">
+        <v>7</v>
+      </c>
+      <c r="G784" t="s">
+        <v>3</v>
+      </c>
+      <c r="H784">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B785">
+        <v>80</v>
+      </c>
+      <c r="C785">
+        <v>75</v>
+      </c>
+      <c r="D785" t="s">
+        <v>31</v>
+      </c>
+      <c r="E785" t="s">
+        <v>28</v>
+      </c>
+      <c r="F785" t="s">
+        <v>7</v>
+      </c>
+      <c r="G785" t="s">
+        <v>4</v>
+      </c>
+      <c r="H785">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B786">
+        <v>78</v>
+      </c>
+      <c r="C786">
+        <v>75</v>
+      </c>
+      <c r="D786" t="s">
+        <v>31</v>
+      </c>
+      <c r="E786" t="s">
+        <v>28</v>
+      </c>
+      <c r="F786" t="s">
+        <v>7</v>
+      </c>
+      <c r="G786" t="s">
+        <v>5</v>
+      </c>
+      <c r="H786">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B787">
+        <v>84</v>
+      </c>
+      <c r="C787">
+        <v>75</v>
+      </c>
+      <c r="D787" t="s">
+        <v>31</v>
+      </c>
+      <c r="E787" t="s">
+        <v>28</v>
+      </c>
+      <c r="F787" t="s">
+        <v>8</v>
+      </c>
+      <c r="G787" t="s">
+        <v>3</v>
+      </c>
+      <c r="H787">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B788">
+        <v>80</v>
+      </c>
+      <c r="C788">
+        <v>75</v>
+      </c>
+      <c r="D788" t="s">
+        <v>31</v>
+      </c>
+      <c r="E788" t="s">
+        <v>28</v>
+      </c>
+      <c r="F788" t="s">
+        <v>8</v>
+      </c>
+      <c r="G788" t="s">
+        <v>4</v>
+      </c>
+      <c r="H788">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B789">
+        <v>77</v>
+      </c>
+      <c r="C789">
+        <v>75</v>
+      </c>
+      <c r="D789" t="s">
+        <v>31</v>
+      </c>
+      <c r="E789" t="s">
+        <v>28</v>
+      </c>
+      <c r="F789" t="s">
+        <v>8</v>
+      </c>
+      <c r="G789" t="s">
+        <v>5</v>
+      </c>
+      <c r="H789">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B790">
+        <v>80</v>
+      </c>
+      <c r="C790">
+        <v>75</v>
+      </c>
+      <c r="D790" t="s">
+        <v>31</v>
+      </c>
+      <c r="E790" t="s">
+        <v>28</v>
+      </c>
+      <c r="F790" t="s">
+        <v>9</v>
+      </c>
+      <c r="G790" t="s">
+        <v>3</v>
+      </c>
+      <c r="H790">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B791">
+        <v>79</v>
+      </c>
+      <c r="C791">
+        <v>75</v>
+      </c>
+      <c r="D791" t="s">
+        <v>31</v>
+      </c>
+      <c r="E791" t="s">
+        <v>28</v>
+      </c>
+      <c r="F791" t="s">
+        <v>9</v>
+      </c>
+      <c r="G791" t="s">
+        <v>4</v>
+      </c>
+      <c r="H791">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B792">
+        <v>78</v>
+      </c>
+      <c r="C792">
+        <v>75</v>
+      </c>
+      <c r="D792" t="s">
+        <v>31</v>
+      </c>
+      <c r="E792" t="s">
+        <v>28</v>
+      </c>
+      <c r="F792" t="s">
+        <v>9</v>
+      </c>
+      <c r="G792" t="s">
+        <v>5</v>
+      </c>
+      <c r="H792">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B793">
+        <v>85</v>
+      </c>
+      <c r="C793">
+        <v>75</v>
+      </c>
+      <c r="D793" t="s">
+        <v>31</v>
+      </c>
+      <c r="E793" t="s">
+        <v>28</v>
+      </c>
+      <c r="F793" t="s">
+        <v>10</v>
+      </c>
+      <c r="G793" t="s">
+        <v>3</v>
+      </c>
+      <c r="H793">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B794">
+        <v>81</v>
+      </c>
+      <c r="C794">
+        <v>75</v>
+      </c>
+      <c r="D794" t="s">
+        <v>31</v>
+      </c>
+      <c r="E794" t="s">
+        <v>28</v>
+      </c>
+      <c r="F794" t="s">
+        <v>10</v>
+      </c>
+      <c r="G794" t="s">
+        <v>4</v>
+      </c>
+      <c r="H794">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B795">
+        <v>79</v>
+      </c>
+      <c r="C795">
+        <v>75</v>
+      </c>
+      <c r="D795" t="s">
+        <v>31</v>
+      </c>
+      <c r="E795" t="s">
+        <v>28</v>
+      </c>
+      <c r="F795" t="s">
+        <v>10</v>
+      </c>
+      <c r="G795" t="s">
+        <v>5</v>
+      </c>
+      <c r="H795">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B796">
+        <v>85</v>
+      </c>
+      <c r="C796">
+        <v>75</v>
+      </c>
+      <c r="D796" t="s">
+        <v>31</v>
+      </c>
+      <c r="E796" t="s">
+        <v>28</v>
+      </c>
+      <c r="F796" t="s">
+        <v>11</v>
+      </c>
+      <c r="G796" t="s">
+        <v>3</v>
+      </c>
+      <c r="H796">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B797">
+        <v>81</v>
+      </c>
+      <c r="C797">
+        <v>75</v>
+      </c>
+      <c r="D797" t="s">
+        <v>31</v>
+      </c>
+      <c r="E797" t="s">
+        <v>28</v>
+      </c>
+      <c r="F797" t="s">
+        <v>11</v>
+      </c>
+      <c r="G797" t="s">
+        <v>4</v>
+      </c>
+      <c r="H797">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B798">
+        <v>78</v>
+      </c>
+      <c r="C798">
+        <v>75</v>
+      </c>
+      <c r="D798" t="s">
+        <v>31</v>
+      </c>
+      <c r="E798" t="s">
+        <v>28</v>
+      </c>
+      <c r="F798" t="s">
+        <v>11</v>
+      </c>
+      <c r="G798" t="s">
+        <v>5</v>
+      </c>
+      <c r="H798">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/src/main/resources/temp/chambers.xlsx
+++ b/src/main/resources/temp/chambers.xlsx
@@ -468,7 +468,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A826" workbookViewId="0">
-      <selection activeCell="B865" sqref="B865"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -846,7 +846,7 @@
         <v>4023</v>
       </c>
       <c r="B23">
-        <v>-89</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <v>12</v>

--- a/src/main/resources/temp/chambers.xlsx
+++ b/src/main/resources/temp/chambers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8064" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7636" uniqueCount="35">
   <si>
     <t>CAM03</t>
   </si>
@@ -130,8 +130,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,9 +167,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A1379" workbookViewId="0">
+      <selection activeCell="H1409" sqref="H1409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26664,7 +26674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1249" spans="1:8">
+    <row r="1249" spans="1:7">
       <c r="D1249" t="s">
         <v>0</v>
       </c>
@@ -26678,7 +26688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1250" spans="1:8">
+    <row r="1250" spans="1:7">
       <c r="D1250" t="s">
         <v>0</v>
       </c>
@@ -26692,7 +26702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1251" spans="1:8">
+    <row r="1251" spans="1:7">
       <c r="D1251" t="s">
         <v>0</v>
       </c>
@@ -26706,7 +26716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1252" spans="1:8">
+    <row r="1252" spans="1:7">
       <c r="D1252" t="s">
         <v>0</v>
       </c>
@@ -26720,7 +26730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1253" spans="1:8">
+    <row r="1253" spans="1:7">
       <c r="D1253" t="s">
         <v>0</v>
       </c>
@@ -26734,7 +26744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1254" spans="1:8">
+    <row r="1254" spans="1:7">
       <c r="D1254" t="s">
         <v>0</v>
       </c>
@@ -26748,7 +26758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1255" spans="1:8">
+    <row r="1255" spans="1:7">
       <c r="D1255" t="s">
         <v>0</v>
       </c>
@@ -26762,7 +26772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1256" spans="1:8">
+    <row r="1256" spans="1:7">
       <c r="D1256" t="s">
         <v>0</v>
       </c>
@@ -26776,7 +26786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1257" spans="1:8">
+    <row r="1257" spans="1:7">
       <c r="D1257" t="s">
         <v>0</v>
       </c>
@@ -26790,7 +26800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1258" spans="1:8">
+    <row r="1258" spans="1:7">
       <c r="D1258" t="s">
         <v>0</v>
       </c>
@@ -26804,7 +26814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1259" spans="1:8">
+    <row r="1259" spans="1:7">
       <c r="D1259" t="s">
         <v>0</v>
       </c>
@@ -26818,7 +26828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1260" spans="1:8">
+    <row r="1260" spans="1:7">
       <c r="D1260" t="s">
         <v>0</v>
       </c>
@@ -26832,539 +26842,65 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1261" spans="1:8">
-      <c r="A1261" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1261">
-        <v>81</v>
-      </c>
-      <c r="C1261">
-        <v>33</v>
-      </c>
-      <c r="D1261" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1261" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1261" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1261" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1261">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:8">
-      <c r="A1262" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1262">
-        <v>80</v>
-      </c>
-      <c r="C1262">
-        <v>56</v>
-      </c>
-      <c r="D1262" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1262" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1262" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1262" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1262">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:8">
-      <c r="A1263" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1263">
-        <v>80</v>
-      </c>
-      <c r="C1263">
-        <v>56</v>
-      </c>
-      <c r="D1263" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1263" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1263" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1263" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1263">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:8">
-      <c r="D1264" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1264" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1264" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1264" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:8">
-      <c r="A1265" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1265">
-        <v>77</v>
-      </c>
-      <c r="C1265">
-        <v>56</v>
-      </c>
-      <c r="D1265" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1265" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1265" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1265" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1265">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:8">
-      <c r="A1266" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1266">
-        <v>74</v>
-      </c>
-      <c r="C1266">
-        <v>56</v>
-      </c>
-      <c r="D1266" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1266" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1266" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1266" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1266">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:8">
-      <c r="A1267" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1267">
-        <v>77</v>
-      </c>
-      <c r="C1267">
-        <v>56</v>
-      </c>
-      <c r="D1267" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1267" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1267" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1267" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1267">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:8">
-      <c r="A1268" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1268">
-        <v>80</v>
-      </c>
-      <c r="C1268">
-        <v>56</v>
-      </c>
-      <c r="D1268" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1268" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1268" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1268" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1268">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:8">
-      <c r="A1269" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1269">
-        <v>74</v>
-      </c>
-      <c r="C1269">
-        <v>56</v>
-      </c>
-      <c r="D1269" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1269" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1269" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1269" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1269">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:8">
-      <c r="A1270" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1270">
-        <v>81</v>
-      </c>
-      <c r="C1270">
-        <v>56</v>
-      </c>
-      <c r="D1270" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1270" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1270" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1270" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:8">
-      <c r="A1271" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1271">
-        <v>77</v>
-      </c>
-      <c r="C1271">
-        <v>56</v>
-      </c>
-      <c r="D1271" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1271" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1271" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1271" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1271">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:8">
-      <c r="A1272" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1272">
-        <v>80</v>
-      </c>
-      <c r="C1272">
-        <v>56</v>
-      </c>
-      <c r="D1272" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1272" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1272" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1272" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1272">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:8">
-      <c r="A1273" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1273">
-        <v>81</v>
-      </c>
-      <c r="C1273">
-        <v>56</v>
-      </c>
-      <c r="D1273" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1273" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1273" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1273" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1273">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:8">
-      <c r="A1274" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1274">
-        <v>77</v>
-      </c>
-      <c r="C1274">
-        <v>56</v>
-      </c>
-      <c r="D1274" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1274" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1274" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1274" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1274">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:8">
-      <c r="A1275" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1275">
-        <v>77</v>
-      </c>
-      <c r="C1275">
-        <v>56</v>
-      </c>
-      <c r="D1275" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1275" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1275" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1275" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1275">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:8">
-      <c r="A1276" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1276">
-        <v>81</v>
-      </c>
-      <c r="C1276">
-        <v>56</v>
-      </c>
-      <c r="D1276" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1276" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1276" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1276" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1276">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:8">
-      <c r="A1277" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1277">
-        <v>81</v>
-      </c>
-      <c r="C1277">
-        <v>56</v>
-      </c>
-      <c r="D1277" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1277" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1277" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1277" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1277">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:8">
-      <c r="A1278" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1278">
-        <v>80</v>
-      </c>
-      <c r="C1278">
-        <v>56</v>
-      </c>
-      <c r="D1278" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1278" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1278" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1278" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1278">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:8">
-      <c r="A1279" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1279">
-        <v>82</v>
-      </c>
-      <c r="C1279">
-        <v>56</v>
-      </c>
-      <c r="D1279" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1279" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1279" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1279" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1279">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:8">
-      <c r="A1280" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1280">
-        <v>81</v>
-      </c>
-      <c r="C1280">
-        <v>56</v>
-      </c>
-      <c r="D1280" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1280" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1280" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1280" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1280">
-        <v>3</v>
-      </c>
+    <row r="1261" spans="1:7">
+      <c r="A1261" s="1"/>
+    </row>
+    <row r="1262" spans="1:7">
+      <c r="A1262" s="1"/>
+    </row>
+    <row r="1263" spans="1:7">
+      <c r="A1263" s="1"/>
+    </row>
+    <row r="1265" spans="1:1">
+      <c r="A1265" s="1"/>
+    </row>
+    <row r="1266" spans="1:1">
+      <c r="A1266" s="1"/>
+    </row>
+    <row r="1267" spans="1:1">
+      <c r="A1267" s="1"/>
+    </row>
+    <row r="1268" spans="1:1">
+      <c r="A1268" s="1"/>
+    </row>
+    <row r="1269" spans="1:1">
+      <c r="A1269" s="1"/>
+    </row>
+    <row r="1270" spans="1:1">
+      <c r="A1270" s="1"/>
+    </row>
+    <row r="1271" spans="1:1">
+      <c r="A1271" s="1"/>
+    </row>
+    <row r="1272" spans="1:1">
+      <c r="A1272" s="1"/>
+    </row>
+    <row r="1273" spans="1:1">
+      <c r="A1273" s="1"/>
+    </row>
+    <row r="1274" spans="1:1">
+      <c r="A1274" s="1"/>
+    </row>
+    <row r="1275" spans="1:1">
+      <c r="A1275" s="1"/>
+    </row>
+    <row r="1276" spans="1:1">
+      <c r="A1276" s="1"/>
+    </row>
+    <row r="1277" spans="1:1">
+      <c r="A1277" s="1"/>
+    </row>
+    <row r="1278" spans="1:1">
+      <c r="A1278" s="1"/>
+    </row>
+    <row r="1279" spans="1:1">
+      <c r="A1279" s="1"/>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" s="1"/>
     </row>
     <row r="1281" spans="1:8">
-      <c r="A1281" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1281">
-        <v>80</v>
-      </c>
-      <c r="C1281">
-        <v>56</v>
-      </c>
-      <c r="D1281" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1281" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1281" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1281" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1281">
-        <v>3</v>
-      </c>
+      <c r="A1281" s="1"/>
     </row>
     <row r="1282" spans="1:8">
       <c r="A1282" s="1">
@@ -30107,7 +29643,7 @@
         <v>5023</v>
       </c>
       <c r="B1408">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C1408">
         <v>56</v>
@@ -30122,531 +29658,72 @@
         <v>2</v>
       </c>
       <c r="G1408" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1408">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1409" spans="1:8">
-      <c r="A1409" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1409">
-        <v>74</v>
-      </c>
-      <c r="C1409">
-        <v>56</v>
-      </c>
-      <c r="D1409" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1409" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1409" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1409" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1409">
-        <v>2</v>
-      </c>
+      <c r="A1409" s="1"/>
+      <c r="H1409" s="3"/>
     </row>
     <row r="1410" spans="1:8">
-      <c r="A1410" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1410">
-        <v>68</v>
-      </c>
-      <c r="C1410">
-        <v>44</v>
-      </c>
-      <c r="D1410" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1410" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1410" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1410" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1410">
-        <v>3</v>
-      </c>
+      <c r="A1410" s="1"/>
     </row>
     <row r="1411" spans="1:8">
-      <c r="A1411" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1411">
-        <v>76</v>
-      </c>
-      <c r="C1411">
-        <v>56</v>
-      </c>
-      <c r="D1411" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1411" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1411" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1411" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1411">
-        <v>3</v>
-      </c>
+      <c r="A1411" s="1"/>
     </row>
     <row r="1412" spans="1:8">
-      <c r="A1412" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1412">
-        <v>74</v>
-      </c>
-      <c r="C1412">
-        <v>56</v>
-      </c>
-      <c r="D1412" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1412" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1412" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1412" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1412">
-        <v>2</v>
-      </c>
+      <c r="A1412" s="1"/>
     </row>
     <row r="1413" spans="1:8">
-      <c r="A1413" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1413">
-        <v>68</v>
-      </c>
-      <c r="C1413">
-        <v>56</v>
-      </c>
-      <c r="D1413" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1413" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1413" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1413" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1413">
-        <v>3</v>
-      </c>
+      <c r="A1413" s="1"/>
     </row>
     <row r="1414" spans="1:8">
-      <c r="A1414" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1414">
-        <v>76</v>
-      </c>
-      <c r="C1414">
-        <v>56</v>
-      </c>
-      <c r="D1414" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1414" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1414" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1414" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1414">
-        <v>3</v>
-      </c>
+      <c r="A1414" s="1"/>
     </row>
     <row r="1415" spans="1:8">
-      <c r="A1415" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1415">
-        <v>73</v>
-      </c>
-      <c r="C1415">
-        <v>56</v>
-      </c>
-      <c r="D1415" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1415" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1415" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1415" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1415">
-        <v>2</v>
-      </c>
+      <c r="A1415" s="1"/>
     </row>
     <row r="1416" spans="1:8">
-      <c r="A1416" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1416">
-        <v>73</v>
-      </c>
-      <c r="C1416">
-        <v>56</v>
-      </c>
-      <c r="D1416" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1416" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1416" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1416" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1416">
-        <v>3</v>
-      </c>
+      <c r="A1416" s="1"/>
     </row>
     <row r="1417" spans="1:8">
-      <c r="A1417" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1417">
-        <v>77</v>
-      </c>
-      <c r="C1417">
-        <v>56</v>
-      </c>
-      <c r="D1417" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1417" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1417" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1417" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1417">
-        <v>3</v>
-      </c>
+      <c r="A1417" s="1"/>
     </row>
     <row r="1418" spans="1:8">
-      <c r="A1418" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1418">
-        <v>73</v>
-      </c>
-      <c r="C1418">
-        <v>56</v>
-      </c>
-      <c r="D1418" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1418" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1418" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1418" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1418">
-        <v>3</v>
-      </c>
+      <c r="A1418" s="1"/>
     </row>
     <row r="1419" spans="1:8">
-      <c r="A1419" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1419">
-        <v>74</v>
-      </c>
-      <c r="C1419">
-        <v>56</v>
-      </c>
-      <c r="D1419" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1419" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1419" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1419" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1419">
-        <v>3</v>
-      </c>
+      <c r="A1419" s="1"/>
     </row>
     <row r="1420" spans="1:8">
-      <c r="A1420" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1420">
-        <v>76</v>
-      </c>
-      <c r="C1420">
-        <v>56</v>
-      </c>
-      <c r="D1420" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1420" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1420" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1420" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1420">
-        <v>3</v>
-      </c>
+      <c r="A1420" s="1"/>
     </row>
     <row r="1421" spans="1:8">
-      <c r="A1421" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1421">
-        <v>73</v>
-      </c>
-      <c r="C1421">
-        <v>56</v>
-      </c>
-      <c r="D1421" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1421" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1421" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1421" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1421">
-        <v>2</v>
-      </c>
+      <c r="A1421" s="1"/>
     </row>
     <row r="1422" spans="1:8">
-      <c r="A1422" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1422">
-        <v>73</v>
-      </c>
-      <c r="C1422">
-        <v>56</v>
-      </c>
-      <c r="D1422" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1422" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1422" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1422" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1422">
-        <v>3</v>
-      </c>
+      <c r="A1422" s="1"/>
     </row>
     <row r="1423" spans="1:8">
-      <c r="A1423" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1423">
-        <v>74</v>
-      </c>
-      <c r="C1423">
-        <v>56</v>
-      </c>
-      <c r="D1423" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1423" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1423" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1423" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1423">
-        <v>3</v>
-      </c>
+      <c r="A1423" s="1"/>
     </row>
     <row r="1424" spans="1:8">
-      <c r="A1424" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1424">
-        <v>76</v>
-      </c>
-      <c r="C1424">
-        <v>56</v>
-      </c>
-      <c r="D1424" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1424" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1424" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1424" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1424">
-        <v>3</v>
-      </c>
+      <c r="A1424" s="1"/>
     </row>
     <row r="1425" spans="1:8">
-      <c r="A1425" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1425">
-        <v>69</v>
-      </c>
-      <c r="C1425">
-        <v>56</v>
-      </c>
-      <c r="D1425" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1425" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1425" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1425" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1425">
-        <v>3</v>
-      </c>
+      <c r="A1425" s="1"/>
     </row>
     <row r="1426" spans="1:8">
-      <c r="A1426" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1426">
-        <v>76</v>
-      </c>
-      <c r="C1426">
-        <v>56</v>
-      </c>
-      <c r="D1426" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1426" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1426" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1426" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1426">
-        <v>3</v>
-      </c>
+      <c r="A1426" s="1"/>
     </row>
     <row r="1427" spans="1:8">
-      <c r="A1427" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1427">
-        <v>77</v>
-      </c>
-      <c r="C1427">
-        <v>56</v>
-      </c>
-      <c r="D1427" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1427" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1427" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1427" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1427">
-        <v>3</v>
-      </c>
+      <c r="A1427" s="1"/>
     </row>
     <row r="1428" spans="1:8">
-      <c r="A1428" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1428">
-        <v>73</v>
-      </c>
-      <c r="C1428">
-        <v>56</v>
-      </c>
-      <c r="D1428" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1428" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1428" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1428" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1428">
-        <v>3</v>
-      </c>
+      <c r="A1428" s="1"/>
     </row>
     <row r="1429" spans="1:8">
       <c r="A1429" s="1">
@@ -31673,84 +30750,44 @@
       </c>
     </row>
     <row r="1473" spans="1:8">
-      <c r="A1473" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1473">
-        <v>69</v>
-      </c>
-      <c r="C1473">
-        <v>44</v>
-      </c>
-      <c r="D1473" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1473" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1473" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1473" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1473">
-        <v>3</v>
-      </c>
+      <c r="A1473" s="2"/>
+      <c r="B1473" s="3"/>
+      <c r="C1473" s="3"/>
+      <c r="D1473" s="3"/>
+      <c r="E1473" s="3"/>
+      <c r="F1473" s="3"/>
+      <c r="G1473" s="3"/>
+      <c r="H1473" s="3"/>
     </row>
     <row r="1474" spans="1:8">
-      <c r="D1474" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1474" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1474" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1474" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1474" s="3"/>
+      <c r="B1474" s="3"/>
+      <c r="C1474" s="3"/>
+      <c r="D1474" s="3"/>
+      <c r="E1474" s="3"/>
+      <c r="F1474" s="3"/>
+      <c r="G1474" s="3"/>
+      <c r="H1474" s="3"/>
     </row>
     <row r="1475" spans="1:8">
-      <c r="D1475" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1475" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1475" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1475" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1475" s="3"/>
+      <c r="B1475" s="3"/>
+      <c r="C1475" s="3"/>
+      <c r="D1475" s="3"/>
+      <c r="E1475" s="3"/>
+      <c r="F1475" s="3"/>
+      <c r="G1475" s="3"/>
+      <c r="H1475" s="3"/>
     </row>
     <row r="1476" spans="1:8">
-      <c r="A1476" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1476">
-        <v>69</v>
-      </c>
-      <c r="C1476">
-        <v>56</v>
-      </c>
-      <c r="D1476" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1476" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1476" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1476" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1476">
-        <v>3</v>
-      </c>
+      <c r="A1476" s="2"/>
+      <c r="B1476" s="3"/>
+      <c r="C1476" s="3"/>
+      <c r="D1476" s="3"/>
+      <c r="E1476" s="3"/>
+      <c r="F1476" s="3"/>
+      <c r="G1476" s="3"/>
+      <c r="H1476" s="3"/>
     </row>
     <row r="1477" spans="1:8">
       <c r="D1477" t="s">
@@ -31781,30 +30818,7 @@
       </c>
     </row>
     <row r="1479" spans="1:8">
-      <c r="A1479" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1479">
-        <v>73</v>
-      </c>
-      <c r="C1479">
-        <v>56</v>
-      </c>
-      <c r="D1479" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1479" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1479" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1479" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1479">
-        <v>3</v>
-      </c>
+      <c r="A1479" s="1"/>
     </row>
     <row r="1480" spans="1:8">
       <c r="D1480" t="s">
@@ -33943,538 +32957,64 @@
       </c>
     </row>
     <row r="1576" spans="1:8">
-      <c r="A1576" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1576">
-        <v>82</v>
-      </c>
-      <c r="C1576">
-        <v>56</v>
-      </c>
-      <c r="D1576" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1576" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1576" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1576" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1576">
-        <v>3</v>
-      </c>
+      <c r="A1576" s="1"/>
     </row>
     <row r="1577" spans="1:8">
-      <c r="A1577" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1577">
-        <v>83</v>
-      </c>
-      <c r="C1577">
-        <v>56</v>
-      </c>
-      <c r="D1577" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1577" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1577" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1577" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1577">
-        <v>3</v>
-      </c>
+      <c r="A1577" s="1"/>
     </row>
     <row r="1578" spans="1:8">
-      <c r="A1578" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1578">
-        <v>81</v>
-      </c>
-      <c r="C1578">
-        <v>56</v>
-      </c>
-      <c r="D1578" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1578" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1578" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1578" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1578">
-        <v>3</v>
-      </c>
+      <c r="A1578" s="1"/>
     </row>
     <row r="1579" spans="1:8">
-      <c r="A1579" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1579">
-        <v>83</v>
-      </c>
-      <c r="C1579">
-        <v>56</v>
-      </c>
-      <c r="D1579" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1579" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1579" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1579" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1579">
-        <v>3</v>
-      </c>
+      <c r="A1579" s="1"/>
     </row>
     <row r="1580" spans="1:8">
-      <c r="A1580" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1580">
-        <v>82</v>
-      </c>
-      <c r="C1580">
-        <v>56</v>
-      </c>
-      <c r="D1580" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1580" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1580" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1580" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1580">
-        <v>3</v>
-      </c>
+      <c r="A1580" s="1"/>
     </row>
     <row r="1581" spans="1:8">
-      <c r="A1581" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1581">
-        <v>82</v>
-      </c>
-      <c r="C1581">
-        <v>56</v>
-      </c>
-      <c r="D1581" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1581" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1581" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1581" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1581">
-        <v>3</v>
-      </c>
+      <c r="A1581" s="1"/>
     </row>
     <row r="1582" spans="1:8">
-      <c r="A1582" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1582">
-        <v>84</v>
-      </c>
-      <c r="C1582">
-        <v>56</v>
-      </c>
-      <c r="D1582" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1582" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1582" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1582" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1582">
-        <v>3</v>
-      </c>
+      <c r="A1582" s="1"/>
     </row>
     <row r="1583" spans="1:8">
-      <c r="A1583" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1583">
-        <v>83</v>
-      </c>
-      <c r="C1583">
-        <v>56</v>
-      </c>
-      <c r="D1583" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1583" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1583" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1583" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1583">
-        <v>3</v>
-      </c>
+      <c r="A1583" s="1"/>
     </row>
     <row r="1584" spans="1:8">
-      <c r="A1584" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1584">
-        <v>82</v>
-      </c>
-      <c r="C1584">
-        <v>56</v>
-      </c>
-      <c r="D1584" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1584" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1584" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1584" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1584">
-        <v>3</v>
-      </c>
+      <c r="A1584" s="1"/>
     </row>
     <row r="1585" spans="1:8">
-      <c r="A1585" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1585">
-        <v>84</v>
-      </c>
-      <c r="C1585">
-        <v>56</v>
-      </c>
-      <c r="D1585" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1585" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1585" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1585" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1585">
-        <v>3</v>
-      </c>
+      <c r="A1585" s="1"/>
     </row>
     <row r="1586" spans="1:8">
-      <c r="A1586" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1586">
-        <v>82</v>
-      </c>
-      <c r="C1586">
-        <v>56</v>
-      </c>
-      <c r="D1586" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1586" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1586" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1586" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1586">
-        <v>3</v>
-      </c>
+      <c r="A1586" s="1"/>
     </row>
     <row r="1587" spans="1:8">
-      <c r="A1587" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1587">
-        <v>82</v>
-      </c>
-      <c r="C1587">
-        <v>56</v>
-      </c>
-      <c r="D1587" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1587" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1587" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1587" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1587">
-        <v>3</v>
-      </c>
+      <c r="A1587" s="1"/>
     </row>
     <row r="1588" spans="1:8">
-      <c r="A1588" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1588">
-        <v>84</v>
-      </c>
-      <c r="C1588">
-        <v>56</v>
-      </c>
-      <c r="D1588" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1588" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1588" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1588" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1588">
-        <v>3</v>
-      </c>
+      <c r="A1588" s="1"/>
     </row>
     <row r="1589" spans="1:8">
-      <c r="A1589" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1589">
-        <v>83</v>
-      </c>
-      <c r="C1589">
-        <v>56</v>
-      </c>
-      <c r="D1589" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1589" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1589" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1589" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1589">
-        <v>3</v>
-      </c>
+      <c r="A1589" s="1"/>
     </row>
     <row r="1590" spans="1:8">
-      <c r="A1590" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1590">
-        <v>82</v>
-      </c>
-      <c r="C1590">
-        <v>56</v>
-      </c>
-      <c r="D1590" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1590" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1590" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1590" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1590">
-        <v>3</v>
-      </c>
+      <c r="A1590" s="1"/>
     </row>
     <row r="1591" spans="1:8">
-      <c r="A1591" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1591">
-        <v>84</v>
-      </c>
-      <c r="C1591">
-        <v>56</v>
-      </c>
-      <c r="D1591" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1591" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1591" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1591" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1591">
-        <v>3</v>
-      </c>
+      <c r="A1591" s="1"/>
     </row>
     <row r="1592" spans="1:8">
-      <c r="A1592" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1592">
-        <v>84</v>
-      </c>
-      <c r="C1592">
-        <v>56</v>
-      </c>
-      <c r="D1592" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1592" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1592" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1592" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1592">
-        <v>3</v>
-      </c>
+      <c r="A1592" s="1"/>
     </row>
     <row r="1593" spans="1:8">
-      <c r="A1593" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1593">
-        <v>83</v>
-      </c>
-      <c r="C1593">
-        <v>56</v>
-      </c>
-      <c r="D1593" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1593" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1593" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1593" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1593">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1594" spans="1:8">
-      <c r="D1594" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1594" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1594" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1594" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1593" s="1"/>
     </row>
     <row r="1595" spans="1:8">
-      <c r="A1595" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1595">
-        <v>84</v>
-      </c>
-      <c r="C1595">
-        <v>56</v>
-      </c>
-      <c r="D1595" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1595" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1595" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1595" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1595">
-        <v>3</v>
-      </c>
+      <c r="A1595" s="1"/>
     </row>
     <row r="1596" spans="1:8">
-      <c r="A1596" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1596">
-        <v>83</v>
-      </c>
-      <c r="C1596">
-        <v>56</v>
-      </c>
-      <c r="D1596" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1596" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1596" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1596" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1596">
-        <v>3</v>
-      </c>
+      <c r="A1596" s="1"/>
     </row>
     <row r="1597" spans="1:8">
       <c r="A1597" s="1">
@@ -38640,7 +37180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1825" spans="1:8">
+    <row r="1825" spans="1:7">
       <c r="D1825" t="s">
         <v>34</v>
       </c>
@@ -38654,7 +37194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1826" spans="1:8">
+    <row r="1826" spans="1:7">
       <c r="D1826" t="s">
         <v>34</v>
       </c>
@@ -38668,7 +37208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1827" spans="1:8">
+    <row r="1827" spans="1:7">
       <c r="D1827" t="s">
         <v>34</v>
       </c>
@@ -38682,7 +37222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1828" spans="1:8">
+    <row r="1828" spans="1:7">
       <c r="D1828" t="s">
         <v>34</v>
       </c>
@@ -38696,7 +37236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1829" spans="1:8">
+    <row r="1829" spans="1:7">
       <c r="D1829" t="s">
         <v>34</v>
       </c>
@@ -38710,877 +37250,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1830" spans="1:8">
-      <c r="A1830" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1830">
-        <v>89</v>
-      </c>
-      <c r="C1830">
-        <v>56</v>
-      </c>
-      <c r="D1830" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1830" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1830" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1830" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1830">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:8">
-      <c r="D1831" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1831" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1831" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1831" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:8">
-      <c r="D1832" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1832" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1832" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1832" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:8">
-      <c r="A1833" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1833">
-        <v>88</v>
-      </c>
-      <c r="C1833">
-        <v>56</v>
-      </c>
-      <c r="D1833" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1833" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1833" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1833" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1833">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:8">
-      <c r="D1834" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1834" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1834" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1834" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:8">
-      <c r="D1835" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1835" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1835" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1835" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:8">
-      <c r="A1836" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1836">
-        <v>90</v>
-      </c>
-      <c r="C1836">
-        <v>56</v>
-      </c>
-      <c r="D1836" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1836" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1836" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1836" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1836">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:8">
-      <c r="D1837" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1837" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1837" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1837" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1838" spans="1:8">
-      <c r="D1838" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1838" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1838" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1838" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:8">
-      <c r="A1839" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1839">
-        <v>90</v>
-      </c>
-      <c r="C1839">
-        <v>56</v>
-      </c>
-      <c r="D1839" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1839" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1839" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1839" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1839">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1840" spans="1:8">
-      <c r="D1840" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1840" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1840" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1840" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1841" spans="1:8">
-      <c r="D1841" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1841" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1841" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1841" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1842" spans="1:8">
-      <c r="A1842" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1842">
-        <v>90</v>
-      </c>
-      <c r="C1842">
-        <v>56</v>
-      </c>
-      <c r="D1842" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1842" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1842" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1842" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1842">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:8">
-      <c r="D1843" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1843" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1843" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1843" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:8">
-      <c r="D1844" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1844" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1844" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1844" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:8">
-      <c r="D1845" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1845" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1845" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1845" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:8">
-      <c r="D1846" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1846" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1846" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1846" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:8">
-      <c r="D1847" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1847" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1847" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1847" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1848" spans="1:8">
-      <c r="D1848" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1848" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1848" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1848" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1849" spans="1:8">
-      <c r="A1849" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1849">
-        <v>88</v>
-      </c>
-      <c r="C1849">
-        <v>56</v>
-      </c>
-      <c r="D1849" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1849" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1849" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1849" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1849">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:8">
-      <c r="A1850" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1850">
-        <v>87</v>
-      </c>
-      <c r="C1850">
-        <v>56</v>
-      </c>
-      <c r="D1850" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1850" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1850" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1850" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1850">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1851" spans="1:8">
-      <c r="A1851" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1851">
-        <v>87</v>
-      </c>
-      <c r="C1851">
-        <v>56</v>
-      </c>
-      <c r="D1851" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1851" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1851" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1851" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1851">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:8">
-      <c r="A1852" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1852">
-        <v>81</v>
-      </c>
-      <c r="C1852">
-        <v>15</v>
-      </c>
-      <c r="D1852" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1852" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1852" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1852" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1852">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:8">
-      <c r="A1853" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1853">
-        <v>87</v>
-      </c>
-      <c r="C1853">
-        <v>56</v>
-      </c>
-      <c r="D1853" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1853" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1853" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1853" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1853">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:8">
-      <c r="A1854" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1854">
-        <v>87</v>
-      </c>
-      <c r="C1854">
-        <v>56</v>
-      </c>
-      <c r="D1854" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1854" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1854" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1854" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1854">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:8">
-      <c r="A1855" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1855">
-        <v>89</v>
-      </c>
-      <c r="C1855">
-        <v>56</v>
-      </c>
-      <c r="D1855" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1855" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1855" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1855" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1855">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:8">
-      <c r="A1856" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1856">
-        <v>88</v>
-      </c>
-      <c r="C1856">
-        <v>56</v>
-      </c>
-      <c r="D1856" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1856" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1856" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1856" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1856">
-        <v>3</v>
-      </c>
+    <row r="1830" spans="1:7">
+      <c r="A1830" s="1"/>
+    </row>
+    <row r="1833" spans="1:7">
+      <c r="A1833" s="1"/>
+    </row>
+    <row r="1836" spans="1:7">
+      <c r="A1836" s="1"/>
+    </row>
+    <row r="1839" spans="1:7">
+      <c r="A1839" s="1"/>
+    </row>
+    <row r="1842" spans="1:1">
+      <c r="A1842" s="1"/>
+    </row>
+    <row r="1849" spans="1:1">
+      <c r="A1849" s="1"/>
+    </row>
+    <row r="1850" spans="1:1">
+      <c r="A1850" s="1"/>
+    </row>
+    <row r="1851" spans="1:1">
+      <c r="A1851" s="1"/>
+    </row>
+    <row r="1852" spans="1:1">
+      <c r="A1852" s="1"/>
+    </row>
+    <row r="1853" spans="1:1">
+      <c r="A1853" s="1"/>
+    </row>
+    <row r="1854" spans="1:1">
+      <c r="A1854" s="1"/>
+    </row>
+    <row r="1855" spans="1:1">
+      <c r="A1855" s="1"/>
+    </row>
+    <row r="1856" spans="1:1">
+      <c r="A1856" s="1"/>
     </row>
     <row r="1857" spans="1:8">
-      <c r="A1857" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1857">
-        <v>87</v>
-      </c>
-      <c r="C1857">
-        <v>56</v>
-      </c>
-      <c r="D1857" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1857" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1857" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1857" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1857">
-        <v>3</v>
-      </c>
+      <c r="A1857" s="1"/>
     </row>
     <row r="1858" spans="1:8">
-      <c r="A1858" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1858">
-        <v>89</v>
-      </c>
-      <c r="C1858">
-        <v>56</v>
-      </c>
-      <c r="D1858" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1858" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1858" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1858" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1858">
-        <v>3</v>
-      </c>
+      <c r="A1858" s="1"/>
     </row>
     <row r="1859" spans="1:8">
-      <c r="A1859" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1859">
-        <v>88</v>
-      </c>
-      <c r="C1859">
-        <v>56</v>
-      </c>
-      <c r="D1859" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1859" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1859" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1859" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1859">
-        <v>3</v>
-      </c>
+      <c r="A1859" s="1"/>
     </row>
     <row r="1860" spans="1:8">
-      <c r="A1860" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1860">
-        <v>87</v>
-      </c>
-      <c r="C1860">
-        <v>56</v>
-      </c>
-      <c r="D1860" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1860" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1860" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1860" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1860">
-        <v>3</v>
-      </c>
+      <c r="A1860" s="1"/>
     </row>
     <row r="1861" spans="1:8">
-      <c r="A1861" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1861">
-        <v>88</v>
-      </c>
-      <c r="C1861">
-        <v>56</v>
-      </c>
-      <c r="D1861" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1861" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1861" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1861" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1861">
-        <v>3</v>
-      </c>
+      <c r="A1861" s="1"/>
     </row>
     <row r="1862" spans="1:8">
-      <c r="A1862" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1862">
-        <v>88</v>
-      </c>
-      <c r="C1862">
-        <v>56</v>
-      </c>
-      <c r="D1862" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1862" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1862" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1862" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1862">
-        <v>3</v>
-      </c>
+      <c r="A1862" s="1"/>
     </row>
     <row r="1863" spans="1:8">
-      <c r="A1863" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1863">
-        <v>87</v>
-      </c>
-      <c r="C1863">
-        <v>56</v>
-      </c>
-      <c r="D1863" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1863" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1863" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1863" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1863">
-        <v>3</v>
-      </c>
+      <c r="A1863" s="1"/>
     </row>
     <row r="1864" spans="1:8">
-      <c r="A1864" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1864">
-        <v>89</v>
-      </c>
-      <c r="C1864">
-        <v>56</v>
-      </c>
-      <c r="D1864" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1864" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1864" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1864" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1864">
-        <v>3</v>
-      </c>
+      <c r="A1864" s="1"/>
     </row>
     <row r="1865" spans="1:8">
-      <c r="A1865" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1865">
-        <v>88</v>
-      </c>
-      <c r="C1865">
-        <v>56</v>
-      </c>
-      <c r="D1865" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1865" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1865" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1865" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1865">
-        <v>3</v>
-      </c>
+      <c r="A1865" s="1"/>
     </row>
     <row r="1866" spans="1:8">
-      <c r="A1866" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1866">
-        <v>84</v>
-      </c>
-      <c r="C1866">
-        <v>56</v>
-      </c>
-      <c r="D1866" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1866" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1866" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1866" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1866">
-        <v>3</v>
-      </c>
+      <c r="A1866" s="1"/>
     </row>
     <row r="1867" spans="1:8">
-      <c r="A1867" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1867">
-        <v>89</v>
-      </c>
-      <c r="C1867">
-        <v>56</v>
-      </c>
-      <c r="D1867" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1867" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1867" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1867" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1867">
-        <v>3</v>
-      </c>
+      <c r="A1867" s="1"/>
     </row>
     <row r="1868" spans="1:8">
-      <c r="A1868" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1868">
-        <v>88</v>
-      </c>
-      <c r="C1868">
-        <v>56</v>
-      </c>
-      <c r="D1868" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1868" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1868" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1868" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1868">
-        <v>3</v>
-      </c>
+      <c r="A1868" s="1"/>
     </row>
     <row r="1869" spans="1:8">
-      <c r="A1869" s="1">
-        <v>5023</v>
-      </c>
-      <c r="B1869">
-        <v>87</v>
-      </c>
-      <c r="C1869">
-        <v>56</v>
-      </c>
-      <c r="D1869" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1869" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1869" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1869" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1869">
-        <v>3</v>
-      </c>
+      <c r="A1869" s="1"/>
     </row>
     <row r="1870" spans="1:8">
       <c r="A1870" s="1">
@@ -42194,5 +39940,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>